--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_21_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_21_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1122226.19806339</v>
+        <v>1117763.842814774</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7197684.80700165</v>
+        <v>7197684.807001649</v>
       </c>
     </row>
     <row r="9">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>104.942223605645</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H11" t="n">
         <v>274.2645523750966</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>348.2431747836501</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.49604960007742</v>
+        <v>60.49604960007741</v>
       </c>
       <c r="T12" t="n">
         <v>136.1178674008418</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.49722708241042</v>
+        <v>127.8175923741452</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>71.60381629275079</v>
@@ -1584,7 +1584,7 @@
         <v>237.0460627746974</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3333288037839</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>2.238006630955717</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H14" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>57.43123191120419</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.7813233390914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.49604960007743</v>
+        <v>60.49604960007741</v>
       </c>
       <c r="T15" t="n">
         <v>136.1178674008418</v>
@@ -1770,16 +1770,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>139.280060110087</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H16" t="n">
         <v>134.3264464278099</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>5.949028315574175</v>
+        <v>5.949028315574161</v>
       </c>
       <c r="S16" t="n">
         <v>152.6902671187685</v>
       </c>
       <c r="T16" t="n">
-        <v>205.5175287548515</v>
+        <v>237.0460627746974</v>
       </c>
       <c r="U16" t="n">
         <v>277.3333288037839</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>201.0545668156771</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>203.0728359906372</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.49604960007743</v>
+        <v>60.49604960007741</v>
       </c>
       <c r="T18" t="n">
         <v>136.1178674008418</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>48.54963872249677</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>83.7716850076082</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.949028315574175</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.0460627746974</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>9.778196384154967</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>125.7201746443444</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>60.49604960007742</v>
+        <v>60.49604960007741</v>
       </c>
       <c r="T21" t="n">
         <v>136.1178674008418</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>84.62678765434489</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>152.6902671187685</v>
@@ -2298,7 +2298,7 @@
         <v>277.3333288037839</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>195.7159640892041</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>337.1088741222271</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H23" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>57.4312319112042</v>
+        <v>39.27081655700734</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>60.49604960007742</v>
+        <v>60.49604960007741</v>
       </c>
       <c r="T24" t="n">
         <v>136.1178674008418</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>60.0534997713391</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>12.76253248512118</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.0460627746974</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>32.69663470051677</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>199.6129384393668</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>60.49604960007742</v>
+        <v>60.49604960007741</v>
       </c>
       <c r="T27" t="n">
         <v>136.1178674008418</v>
@@ -2715,7 +2715,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2724,16 +2724,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>237.0460627746974</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3333288037839</v>
+        <v>22.39089180353029</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>144.2148659166932</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>220.1165333204139</v>
       </c>
       <c r="G29" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>57.4312319112042</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>166.5316856468442</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>60.49604960007742</v>
+        <v>60.49604960007741</v>
       </c>
       <c r="T30" t="n">
         <v>136.1178674008418</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>5.949028315574168</v>
       </c>
       <c r="S31" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.0460627746974</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>156.6293047572549</v>
+        <v>154.0094542622756</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3031,7 +3031,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>398.2817435681513</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>136.327399162668</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>27.33271423638317</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T32" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>255.6102460520883</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>60.49604960007742</v>
+        <v>60.49604960007741</v>
       </c>
       <c r="T33" t="n">
         <v>136.1178674008418</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>60.0534997713391</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>117.2941262218908</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>152.6902671187685</v>
@@ -3255,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,22 +3268,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>118.2429671431357</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>57.4312319112042</v>
       </c>
       <c r="T35" t="n">
-        <v>48.29111186179941</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60.49604960007742</v>
+        <v>60.49604960007741</v>
       </c>
       <c r="T36" t="n">
         <v>136.1178674008418</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>110.4899952595798</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>152.6902671187685</v>
+        <v>48.54963872249682</v>
       </c>
       <c r="T37" t="n">
         <v>237.0460627746974</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>176.018876984076</v>
+        <v>410.7941373028737</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -3520,7 +3520,7 @@
         <v>398.2817435681513</v>
       </c>
       <c r="H38" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.49604960007742</v>
+        <v>60.49604960007741</v>
       </c>
       <c r="T39" t="n">
         <v>136.1178674008418</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>55.342326530252</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3669,19 +3669,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.0460627746974</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3333288037839</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>140.5703877957573</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>390.7487368238932</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>57.4312319112042</v>
       </c>
       <c r="T41" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>12.98253592577251</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3903,19 +3903,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>36.14732798824431</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H43" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>152.6902671187685</v>
@@ -3957,13 +3957,13 @@
         <v>277.3333288037839</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>86.65483697981918</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.9477530652391</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>255.6102460520883</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.9130847447666</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4152,7 +4152,7 @@
         <v>163.6910211419383</v>
       </c>
       <c r="H46" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T46" t="n">
-        <v>237.0460627746974</v>
+        <v>49.37930563984133</v>
       </c>
       <c r="U46" t="n">
         <v>277.3333288037839</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>131.5993615512257</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1701.785007093404</v>
+        <v>1146.062640712777</v>
       </c>
       <c r="C11" t="n">
-        <v>1274.884277106704</v>
+        <v>1146.062640712777</v>
       </c>
       <c r="D11" t="n">
-        <v>851.5916562917046</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="E11" t="n">
-        <v>745.5894102253965</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="F11" t="n">
-        <v>320.4652284147966</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="G11" t="n">
-        <v>320.4652284147966</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="H11" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I11" t="n">
         <v>86.09345146672831</v>
       </c>
       <c r="J11" t="n">
-        <v>226.188035292299</v>
+        <v>226.1880352922992</v>
       </c>
       <c r="K11" t="n">
-        <v>444.3985098873428</v>
+        <v>444.3985098873432</v>
       </c>
       <c r="L11" t="n">
-        <v>721.1044354144763</v>
+        <v>721.1044354144766</v>
       </c>
       <c r="M11" t="n">
-        <v>1034.139376672043</v>
+        <v>1034.139376672044</v>
       </c>
       <c r="N11" t="n">
-        <v>1352.989294408673</v>
+        <v>1352.989294408674</v>
       </c>
       <c r="O11" t="n">
         <v>1651.903250255482</v>
@@ -5062,31 +5062,31 @@
         <v>1901.41298331237</v>
       </c>
       <c r="Q11" t="n">
-        <v>2080.956330428338</v>
+        <v>2080.956330428339</v>
       </c>
       <c r="R11" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S11" t="n">
-        <v>2113.505005925657</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="T11" t="n">
-        <v>2113.505005925657</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="U11" t="n">
-        <v>2113.505005925657</v>
+        <v>1855.312838196276</v>
       </c>
       <c r="V11" t="n">
-        <v>2113.505005925657</v>
+        <v>1497.823423322525</v>
       </c>
       <c r="W11" t="n">
-        <v>2113.505005925657</v>
+        <v>1497.823423322525</v>
       </c>
       <c r="X11" t="n">
-        <v>1701.785007093404</v>
+        <v>1146.062640712777</v>
       </c>
       <c r="Y11" t="n">
-        <v>1701.785007093404</v>
+        <v>1146.062640712777</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G12" t="n">
-        <v>86.29446917954513</v>
+        <v>86.29446917954515</v>
       </c>
       <c r="H12" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I12" t="n">
-        <v>64.14840690919138</v>
+        <v>64.14840690919141</v>
       </c>
       <c r="J12" t="n">
-        <v>144.5298811612101</v>
+        <v>383.1970525392668</v>
       </c>
       <c r="K12" t="n">
-        <v>294.6147826485601</v>
+        <v>533.2819540266169</v>
       </c>
       <c r="L12" t="n">
-        <v>503.9498672632496</v>
+        <v>742.6170386413064</v>
       </c>
       <c r="M12" t="n">
-        <v>884.5911994816743</v>
+        <v>990.0466997665801</v>
       </c>
       <c r="N12" t="n">
-        <v>1140.910992285808</v>
+        <v>1246.366492570714</v>
       </c>
       <c r="O12" t="n">
-        <v>1371.782809845618</v>
+        <v>1477.238310130523</v>
       </c>
       <c r="P12" t="n">
-        <v>1553.93617419181</v>
+        <v>1659.391674476716</v>
       </c>
       <c r="Q12" t="n">
-        <v>1667.589004942817</v>
+        <v>1773.044505227723</v>
       </c>
       <c r="R12" t="n">
         <v>1815.841701345204</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>423.3024676356546</v>
+        <v>617.2549560316647</v>
       </c>
       <c r="C13" t="n">
-        <v>423.3024676356546</v>
+        <v>445.2823929105807</v>
       </c>
       <c r="D13" t="n">
-        <v>423.3024676356546</v>
+        <v>281.9656200373514</v>
       </c>
       <c r="E13" t="n">
-        <v>423.3024676356546</v>
+        <v>115.757414190205</v>
       </c>
       <c r="F13" t="n">
-        <v>251.440693410215</v>
+        <v>115.757414190205</v>
       </c>
       <c r="G13" t="n">
-        <v>251.440693410215</v>
+        <v>115.757414190205</v>
       </c>
       <c r="H13" t="n">
-        <v>115.7574141902049</v>
+        <v>115.757414190205</v>
       </c>
       <c r="I13" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="J13" t="n">
-        <v>164.1518522719319</v>
+        <v>164.151852271932</v>
       </c>
       <c r="K13" t="n">
-        <v>247.303481619848</v>
+        <v>494.5860907338701</v>
       </c>
       <c r="L13" t="n">
-        <v>358.5686312077888</v>
+        <v>605.8512403218109</v>
       </c>
       <c r="M13" t="n">
-        <v>726.0438905171679</v>
+        <v>723.6942110269666</v>
       </c>
       <c r="N13" t="n">
-        <v>1240.394589572542</v>
+        <v>1238.044910082341</v>
       </c>
       <c r="O13" t="n">
-        <v>1722.234329837427</v>
+        <v>1719.884650347226</v>
       </c>
       <c r="P13" t="n">
-        <v>2121.000513751125</v>
+        <v>2118.650834260924</v>
       </c>
       <c r="Q13" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="R13" t="n">
         <v>2165.507231779829</v>
       </c>
       <c r="S13" t="n">
-        <v>2011.274638730567</v>
+        <v>2011.274638730568</v>
       </c>
       <c r="T13" t="n">
-        <v>1771.834171281378</v>
+        <v>1771.834171281379</v>
       </c>
       <c r="U13" t="n">
-        <v>1491.699495722</v>
+        <v>1771.834171281379</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.988028330029</v>
+        <v>1490.122703889408</v>
       </c>
       <c r="W13" t="n">
-        <v>935.1356245025422</v>
+        <v>1215.270300061921</v>
       </c>
       <c r="X13" t="n">
-        <v>692.5717279483473</v>
+        <v>972.7064035077259</v>
       </c>
       <c r="Y13" t="n">
-        <v>466.2289596380893</v>
+        <v>746.3636351974679</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>747.3659584014965</v>
+        <v>1297.265291934475</v>
       </c>
       <c r="C14" t="n">
-        <v>320.4652284147967</v>
+        <v>1295.004679175933</v>
       </c>
       <c r="D14" t="n">
-        <v>320.4652284147967</v>
+        <v>871.7120583609337</v>
       </c>
       <c r="E14" t="n">
-        <v>320.4652284147967</v>
+        <v>445.7351185087913</v>
       </c>
       <c r="F14" t="n">
-        <v>320.4652284147967</v>
+        <v>445.7351185087913</v>
       </c>
       <c r="G14" t="n">
-        <v>320.4652284147967</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="H14" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I14" t="n">
-        <v>86.09345146672831</v>
+        <v>86.09345146672865</v>
       </c>
       <c r="J14" t="n">
-        <v>226.1880352922988</v>
+        <v>226.1880352922994</v>
       </c>
       <c r="K14" t="n">
-        <v>444.3985098873425</v>
+        <v>444.3985098873432</v>
       </c>
       <c r="L14" t="n">
-        <v>721.1044354144759</v>
+        <v>721.1044354144766</v>
       </c>
       <c r="M14" t="n">
-        <v>1034.139376672043</v>
+        <v>1034.139376672044</v>
       </c>
       <c r="N14" t="n">
-        <v>1352.989294408673</v>
+        <v>1352.989294408674</v>
       </c>
       <c r="O14" t="n">
-        <v>1651.903250255481</v>
+        <v>1651.903250255482</v>
       </c>
       <c r="P14" t="n">
         <v>1901.41298331237</v>
       </c>
       <c r="Q14" t="n">
-        <v>2080.956330428338</v>
+        <v>2080.956330428339</v>
       </c>
       <c r="R14" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S14" t="n">
-        <v>2171.51635129051</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="T14" t="n">
-        <v>2171.51635129051</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="U14" t="n">
-        <v>1913.324183561127</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="V14" t="n">
-        <v>1555.834768687377</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="W14" t="n">
-        <v>1555.834768687377</v>
+        <v>1717.113656226005</v>
       </c>
       <c r="X14" t="n">
-        <v>1144.114769855124</v>
+        <v>1717.113656226005</v>
       </c>
       <c r="Y14" t="n">
-        <v>747.3659584014965</v>
+        <v>1717.113656226005</v>
       </c>
     </row>
     <row r="15">
@@ -5348,31 +5348,31 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G15" t="n">
-        <v>86.29446917954513</v>
+        <v>86.29446917954515</v>
       </c>
       <c r="H15" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I15" t="n">
-        <v>64.14840690919138</v>
+        <v>64.14840690919141</v>
       </c>
       <c r="J15" t="n">
-        <v>144.5298811612101</v>
+        <v>383.1970525392663</v>
       </c>
       <c r="K15" t="n">
-        <v>533.2819540266171</v>
+        <v>533.2819540266164</v>
       </c>
       <c r="L15" t="n">
-        <v>742.6170386413066</v>
+        <v>742.6170386413061</v>
       </c>
       <c r="M15" t="n">
-        <v>990.0466997665803</v>
+        <v>990.0466997665799</v>
       </c>
       <c r="N15" t="n">
-        <v>1246.366492570714</v>
+        <v>1246.366492570713</v>
       </c>
       <c r="O15" t="n">
-        <v>1477.238310130524</v>
+        <v>1477.238310130523</v>
       </c>
       <c r="P15" t="n">
         <v>1659.391674476716</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>589.6214623784455</v>
+        <v>1058.969630455741</v>
       </c>
       <c r="C16" t="n">
-        <v>417.6488992573614</v>
+        <v>886.9970673346568</v>
       </c>
       <c r="D16" t="n">
-        <v>417.6488992573614</v>
+        <v>723.6802944614275</v>
       </c>
       <c r="E16" t="n">
-        <v>251.440693410215</v>
+        <v>557.472088614281</v>
       </c>
       <c r="F16" t="n">
-        <v>251.440693410215</v>
+        <v>416.7851592101528</v>
       </c>
       <c r="G16" t="n">
         <v>251.440693410215</v>
       </c>
       <c r="H16" t="n">
-        <v>115.7574141902049</v>
+        <v>115.757414190205</v>
       </c>
       <c r="I16" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="J16" t="n">
-        <v>86.23013562371108</v>
+        <v>164.151852271932</v>
       </c>
       <c r="K16" t="n">
-        <v>169.3817649716271</v>
+        <v>494.5860907338701</v>
       </c>
       <c r="L16" t="n">
-        <v>657.0358081507328</v>
+        <v>854.8603452759938</v>
       </c>
       <c r="M16" t="n">
-        <v>774.8787788558885</v>
+        <v>972.7033159811497</v>
       </c>
       <c r="N16" t="n">
-        <v>1240.394589572542</v>
+        <v>1089.021092194644</v>
       </c>
       <c r="O16" t="n">
-        <v>1722.234329837427</v>
+        <v>1570.860832459529</v>
       </c>
       <c r="P16" t="n">
-        <v>2121.000513751125</v>
+        <v>1969.627016373227</v>
       </c>
       <c r="Q16" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="R16" t="n">
         <v>2165.507231779829</v>
       </c>
       <c r="S16" t="n">
-        <v>2011.274638730567</v>
+        <v>2011.274638730568</v>
       </c>
       <c r="T16" t="n">
-        <v>1803.681175341829</v>
+        <v>1771.834171281379</v>
       </c>
       <c r="U16" t="n">
-        <v>1523.546499782451</v>
+        <v>1491.699495722001</v>
       </c>
       <c r="V16" t="n">
-        <v>1523.546499782451</v>
+        <v>1491.699495722001</v>
       </c>
       <c r="W16" t="n">
-        <v>1248.694095954964</v>
+        <v>1491.699495722001</v>
       </c>
       <c r="X16" t="n">
-        <v>1006.130199400769</v>
+        <v>1249.135599167807</v>
       </c>
       <c r="Y16" t="n">
-        <v>779.7874310905111</v>
+        <v>1249.135599167807</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1775.125001590857</v>
+        <v>896.3079968646525</v>
       </c>
       <c r="C17" t="n">
-        <v>1572.03958056492</v>
+        <v>469.4072668779527</v>
       </c>
       <c r="D17" t="n">
-        <v>1148.74695974992</v>
+        <v>469.4072668779527</v>
       </c>
       <c r="E17" t="n">
-        <v>722.7700198977777</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="F17" t="n">
-        <v>722.7700198977777</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="G17" t="n">
-        <v>320.4652284147967</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="H17" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I17" t="n">
-        <v>86.09345146672865</v>
+        <v>86.09345146672831</v>
       </c>
       <c r="J17" t="n">
-        <v>226.1880352922993</v>
+        <v>226.1880352922992</v>
       </c>
       <c r="K17" t="n">
-        <v>444.398509887343</v>
+        <v>444.3985098873432</v>
       </c>
       <c r="L17" t="n">
-        <v>721.1044354144764</v>
+        <v>721.1044354144766</v>
       </c>
       <c r="M17" t="n">
-        <v>1034.139376672043</v>
+        <v>1034.139376672044</v>
       </c>
       <c r="N17" t="n">
-        <v>1352.989294408673</v>
+        <v>1352.989294408674</v>
       </c>
       <c r="O17" t="n">
-        <v>1651.903250255481</v>
+        <v>1651.903250255482</v>
       </c>
       <c r="P17" t="n">
         <v>1901.41298331237</v>
       </c>
       <c r="Q17" t="n">
-        <v>2080.956330428338</v>
+        <v>2080.956330428339</v>
       </c>
       <c r="R17" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S17" t="n">
-        <v>2171.51635129051</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="T17" t="n">
-        <v>2171.51635129051</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="U17" t="n">
-        <v>2171.51635129051</v>
+        <v>1855.312838196276</v>
       </c>
       <c r="V17" t="n">
-        <v>2171.51635129051</v>
+        <v>1497.823423322525</v>
       </c>
       <c r="W17" t="n">
-        <v>1775.125001590857</v>
+        <v>1101.432073622872</v>
       </c>
       <c r="X17" t="n">
-        <v>1775.125001590857</v>
+        <v>896.3079968646525</v>
       </c>
       <c r="Y17" t="n">
-        <v>1775.125001590857</v>
+        <v>896.3079968646525</v>
       </c>
     </row>
     <row r="18">
@@ -5585,31 +5585,31 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G18" t="n">
-        <v>86.29446917954513</v>
+        <v>86.29446917954515</v>
       </c>
       <c r="H18" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I18" t="n">
-        <v>64.14840690919138</v>
+        <v>64.14840690919141</v>
       </c>
       <c r="J18" t="n">
-        <v>144.5298811612101</v>
+        <v>383.1970525392668</v>
       </c>
       <c r="K18" t="n">
-        <v>294.61478264856</v>
+        <v>533.2819540266169</v>
       </c>
       <c r="L18" t="n">
-        <v>742.6170386413066</v>
+        <v>742.6170386413064</v>
       </c>
       <c r="M18" t="n">
-        <v>990.0466997665803</v>
+        <v>990.0466997665801</v>
       </c>
       <c r="N18" t="n">
         <v>1246.366492570714</v>
       </c>
       <c r="O18" t="n">
-        <v>1477.238310130524</v>
+        <v>1477.238310130523</v>
       </c>
       <c r="P18" t="n">
         <v>1659.391674476716</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>466.2289596380893</v>
+        <v>436.3047034859669</v>
       </c>
       <c r="C19" t="n">
-        <v>294.2563965170053</v>
+        <v>264.3321403648829</v>
       </c>
       <c r="D19" t="n">
-        <v>294.2563965170053</v>
+        <v>215.2921012512498</v>
       </c>
       <c r="E19" t="n">
-        <v>128.0481906698589</v>
+        <v>215.2921012512498</v>
       </c>
       <c r="F19" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="G19" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="H19" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I19" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="J19" t="n">
-        <v>86.23013562371108</v>
+        <v>86.23013562371111</v>
       </c>
       <c r="K19" t="n">
-        <v>345.5622728461723</v>
+        <v>416.6643740856492</v>
       </c>
       <c r="L19" t="n">
-        <v>456.827422434113</v>
+        <v>904.318417264755</v>
       </c>
       <c r="M19" t="n">
-        <v>574.6703931392688</v>
+        <v>1022.161387969911</v>
       </c>
       <c r="N19" t="n">
-        <v>1089.021092194643</v>
+        <v>1466.723416497847</v>
       </c>
       <c r="O19" t="n">
-        <v>1570.860832459528</v>
+        <v>1570.860832459529</v>
       </c>
       <c r="P19" t="n">
-        <v>1969.627016373226</v>
+        <v>1969.627016373227</v>
       </c>
       <c r="Q19" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="R19" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S19" t="n">
-        <v>2011.274638730567</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="T19" t="n">
-        <v>1771.834171281378</v>
+        <v>1932.075883841321</v>
       </c>
       <c r="U19" t="n">
-        <v>1491.699495722</v>
+        <v>1651.941208281944</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.988028330029</v>
+        <v>1370.229740889972</v>
       </c>
       <c r="W19" t="n">
-        <v>935.1356245025422</v>
+        <v>1095.377337062485</v>
       </c>
       <c r="X19" t="n">
-        <v>692.5717279483473</v>
+        <v>852.8134405082905</v>
       </c>
       <c r="Y19" t="n">
-        <v>466.2289596380893</v>
+        <v>626.4706721980325</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>470.3310570125101</v>
+        <v>1574.794931695077</v>
       </c>
       <c r="C20" t="n">
-        <v>43.43032702581019</v>
+        <v>1147.894201708378</v>
       </c>
       <c r="D20" t="n">
-        <v>43.43032702581019</v>
+        <v>1147.894201708378</v>
       </c>
       <c r="E20" t="n">
-        <v>43.43032702581019</v>
+        <v>1147.894201708378</v>
       </c>
       <c r="F20" t="n">
-        <v>43.43032702581019</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="G20" t="n">
-        <v>43.43032702581019</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="H20" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I20" t="n">
-        <v>86.09345146672854</v>
+        <v>86.09345146672831</v>
       </c>
       <c r="J20" t="n">
         <v>226.1880352922992</v>
       </c>
       <c r="K20" t="n">
-        <v>444.3985098873429</v>
+        <v>444.3985098873432</v>
       </c>
       <c r="L20" t="n">
-        <v>721.1044354144764</v>
+        <v>721.1044354144766</v>
       </c>
       <c r="M20" t="n">
-        <v>1034.139376672043</v>
+        <v>1034.139376672044</v>
       </c>
       <c r="N20" t="n">
-        <v>1352.989294408673</v>
+        <v>1352.989294408674</v>
       </c>
       <c r="O20" t="n">
         <v>1651.903250255482</v>
@@ -5773,31 +5773,31 @@
         <v>1901.41298331237</v>
       </c>
       <c r="Q20" t="n">
-        <v>2080.956330428338</v>
+        <v>2080.956330428339</v>
       </c>
       <c r="R20" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S20" t="n">
-        <v>2113.505005925657</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="T20" t="n">
-        <v>2113.505005925657</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="U20" t="n">
-        <v>2113.505005925657</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="V20" t="n">
-        <v>2103.628039881056</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="W20" t="n">
-        <v>1707.236690181403</v>
+        <v>1986.51493052733</v>
       </c>
       <c r="X20" t="n">
-        <v>1295.51669134915</v>
+        <v>1574.794931695077</v>
       </c>
       <c r="Y20" t="n">
-        <v>890.1794213040401</v>
+        <v>1574.794931695077</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G21" t="n">
-        <v>86.29446917954513</v>
+        <v>86.29446917954515</v>
       </c>
       <c r="H21" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I21" t="n">
-        <v>64.14840690919138</v>
+        <v>87.60571275360324</v>
       </c>
       <c r="J21" t="n">
-        <v>144.5298811612101</v>
+        <v>277.741552254361</v>
       </c>
       <c r="K21" t="n">
-        <v>294.6147826485601</v>
+        <v>427.826453741711</v>
       </c>
       <c r="L21" t="n">
-        <v>503.9498672632496</v>
+        <v>637.1615383564006</v>
       </c>
       <c r="M21" t="n">
-        <v>990.0466997665803</v>
+        <v>884.5911994816743</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.366492570714</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O21" t="n">
-        <v>1477.238310130524</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P21" t="n">
-        <v>1659.391674476716</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q21" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R21" t="n">
         <v>1815.841701345204</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>380.7473559468319</v>
+        <v>782.5994218316024</v>
       </c>
       <c r="C22" t="n">
-        <v>208.7747928257479</v>
+        <v>610.6268587105184</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7747928257479</v>
+        <v>447.3100858372891</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7747928257479</v>
+        <v>281.1018799901427</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7747928257479</v>
+        <v>281.1018799901427</v>
       </c>
       <c r="G22" t="n">
-        <v>43.43032702581019</v>
+        <v>115.757414190205</v>
       </c>
       <c r="H22" t="n">
-        <v>43.43032702581019</v>
+        <v>115.757414190205</v>
       </c>
       <c r="I22" t="n">
-        <v>43.43032702581019</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="J22" t="n">
-        <v>86.23013562371108</v>
+        <v>164.151852271932</v>
       </c>
       <c r="K22" t="n">
-        <v>169.3817649716271</v>
+        <v>494.5860907338701</v>
       </c>
       <c r="L22" t="n">
-        <v>657.0358081507329</v>
+        <v>733.7504708478031</v>
       </c>
       <c r="M22" t="n">
-        <v>1188.41425931871</v>
+        <v>1265.128922015781</v>
       </c>
       <c r="N22" t="n">
-        <v>1466.723416497847</v>
+        <v>1779.479621071155</v>
       </c>
       <c r="O22" t="n">
-        <v>1570.860832459528</v>
+        <v>1883.617037032837</v>
       </c>
       <c r="P22" t="n">
-        <v>1969.627016373226</v>
+        <v>1969.627016373227</v>
       </c>
       <c r="Q22" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="R22" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S22" t="n">
-        <v>2011.274638730567</v>
+        <v>2017.283758241249</v>
       </c>
       <c r="T22" t="n">
-        <v>1771.834171281378</v>
+        <v>1777.84329079206</v>
       </c>
       <c r="U22" t="n">
-        <v>1491.699495722</v>
+        <v>1497.708615232682</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.988028330029</v>
+        <v>1497.708615232682</v>
       </c>
       <c r="W22" t="n">
-        <v>935.1356245025422</v>
+        <v>1222.856211405195</v>
       </c>
       <c r="X22" t="n">
-        <v>692.5717279483473</v>
+        <v>980.2923148510005</v>
       </c>
       <c r="Y22" t="n">
-        <v>466.2289596380893</v>
+        <v>782.5994218316024</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>745.5894102253965</v>
+        <v>1720.128860986533</v>
       </c>
       <c r="C23" t="n">
-        <v>745.5894102253965</v>
+        <v>1720.128860986533</v>
       </c>
       <c r="D23" t="n">
-        <v>745.5894102253965</v>
+        <v>1296.836240171534</v>
       </c>
       <c r="E23" t="n">
-        <v>745.5894102253965</v>
+        <v>870.8593003193911</v>
       </c>
       <c r="F23" t="n">
-        <v>320.4652284147967</v>
+        <v>445.7351185087913</v>
       </c>
       <c r="G23" t="n">
-        <v>320.4652284147967</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="H23" t="n">
         <v>43.43032702581021</v>
@@ -5995,10 +5995,10 @@
         <v>444.3985098873432</v>
       </c>
       <c r="L23" t="n">
-        <v>721.1044354144764</v>
+        <v>721.1044354144767</v>
       </c>
       <c r="M23" t="n">
-        <v>1034.139376672043</v>
+        <v>1034.139376672044</v>
       </c>
       <c r="N23" t="n">
         <v>1352.989294408674</v>
@@ -6016,25 +6016,25 @@
         <v>2171.516351290511</v>
       </c>
       <c r="S23" t="n">
-        <v>2113.505005925658</v>
+        <v>2131.848859818786</v>
       </c>
       <c r="T23" t="n">
-        <v>2113.505005925658</v>
+        <v>2131.848859818786</v>
       </c>
       <c r="U23" t="n">
-        <v>1855.312838196276</v>
+        <v>2131.848859818786</v>
       </c>
       <c r="V23" t="n">
-        <v>1497.823423322525</v>
+        <v>2131.848859818786</v>
       </c>
       <c r="W23" t="n">
-        <v>1497.823423322525</v>
+        <v>2131.848859818786</v>
       </c>
       <c r="X23" t="n">
-        <v>1086.103424490272</v>
+        <v>1720.128860986533</v>
       </c>
       <c r="Y23" t="n">
-        <v>1086.103424490272</v>
+        <v>1720.128860986533</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>43.43032702581021</v>
       </c>
       <c r="I24" t="n">
-        <v>64.14840690919139</v>
+        <v>87.60571275360324</v>
       </c>
       <c r="J24" t="n">
-        <v>144.5298811612101</v>
+        <v>277.741552254361</v>
       </c>
       <c r="K24" t="n">
-        <v>294.6147826485601</v>
+        <v>427.826453741711</v>
       </c>
       <c r="L24" t="n">
-        <v>503.9498672632496</v>
+        <v>637.1615383564006</v>
       </c>
       <c r="M24" t="n">
-        <v>751.3795283885233</v>
+        <v>884.5911994816743</v>
       </c>
       <c r="N24" t="n">
-        <v>1007.699321192657</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O24" t="n">
-        <v>1238.571138752467</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P24" t="n">
-        <v>1420.724503098659</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q24" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R24" t="n">
         <v>1815.841701345204</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>276.0629909260246</v>
+        <v>436.3047034859669</v>
       </c>
       <c r="C25" t="n">
-        <v>104.0904278049406</v>
+        <v>264.3321403648829</v>
       </c>
       <c r="D25" t="n">
-        <v>43.43032702581021</v>
+        <v>264.3321403648829</v>
       </c>
       <c r="E25" t="n">
-        <v>43.43032702581021</v>
+        <v>264.3321403648829</v>
       </c>
       <c r="F25" t="n">
-        <v>43.43032702581021</v>
+        <v>251.440693410215</v>
       </c>
       <c r="G25" t="n">
-        <v>43.43032702581021</v>
+        <v>251.440693410215</v>
       </c>
       <c r="H25" t="n">
-        <v>43.43032702581021</v>
+        <v>115.757414190205</v>
       </c>
       <c r="I25" t="n">
         <v>43.43032702581021</v>
       </c>
       <c r="J25" t="n">
-        <v>86.23013562371111</v>
+        <v>164.151852271932</v>
       </c>
       <c r="K25" t="n">
-        <v>416.6643740856492</v>
+        <v>494.5860907338701</v>
       </c>
       <c r="L25" t="n">
-        <v>527.92952367359</v>
+        <v>605.8512403218109</v>
       </c>
       <c r="M25" t="n">
-        <v>645.7724943787457</v>
+        <v>1137.229691489788</v>
       </c>
       <c r="N25" t="n">
-        <v>1160.12319343412</v>
+        <v>1651.580390545163</v>
       </c>
       <c r="O25" t="n">
-        <v>1570.860832459529</v>
+        <v>1755.717806506844</v>
       </c>
       <c r="P25" t="n">
         <v>1969.627016373227</v>
@@ -6171,28 +6171,28 @@
         <v>2171.516351290511</v>
       </c>
       <c r="R25" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S25" t="n">
-        <v>2011.274638730568</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="T25" t="n">
-        <v>1771.834171281379</v>
+        <v>1932.075883841321</v>
       </c>
       <c r="U25" t="n">
-        <v>1491.699495722001</v>
+        <v>1651.941208281944</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.98802833003</v>
+        <v>1370.229740889972</v>
       </c>
       <c r="W25" t="n">
-        <v>935.1356245025431</v>
+        <v>1095.377337062485</v>
       </c>
       <c r="X25" t="n">
-        <v>692.5717279483482</v>
+        <v>852.8134405082905</v>
       </c>
       <c r="Y25" t="n">
-        <v>466.2289596380903</v>
+        <v>626.4706721980325</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>895.45523882311</v>
+        <v>1321.432178675252</v>
       </c>
       <c r="C26" t="n">
-        <v>468.55450883641</v>
+        <v>894.5314486885525</v>
       </c>
       <c r="D26" t="n">
-        <v>468.55450883641</v>
+        <v>894.5314486885525</v>
       </c>
       <c r="E26" t="n">
         <v>468.55450883641</v>
@@ -6232,10 +6232,10 @@
         <v>444.3985098873429</v>
       </c>
       <c r="L26" t="n">
-        <v>721.1044354144764</v>
+        <v>721.1044354144765</v>
       </c>
       <c r="M26" t="n">
-        <v>1034.139376672043</v>
+        <v>1034.139376672044</v>
       </c>
       <c r="N26" t="n">
         <v>1352.989294408674</v>
@@ -6253,25 +6253,25 @@
         <v>2171.516351290511</v>
       </c>
       <c r="S26" t="n">
-        <v>2171.516351290511</v>
+        <v>2138.489447552615</v>
       </c>
       <c r="T26" t="n">
-        <v>2171.516351290511</v>
+        <v>2138.489447552615</v>
       </c>
       <c r="U26" t="n">
-        <v>1913.324183561128</v>
+        <v>2138.489447552615</v>
       </c>
       <c r="V26" t="n">
-        <v>1913.324183561128</v>
+        <v>2138.489447552615</v>
       </c>
       <c r="W26" t="n">
-        <v>1516.932833861475</v>
+        <v>2138.489447552615</v>
       </c>
       <c r="X26" t="n">
-        <v>1315.30360311464</v>
+        <v>1726.769448720362</v>
       </c>
       <c r="Y26" t="n">
-        <v>1315.30360311464</v>
+        <v>1321.432178675252</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>43.43032702581021</v>
       </c>
       <c r="I27" t="n">
-        <v>64.14840690919139</v>
+        <v>87.60571275360324</v>
       </c>
       <c r="J27" t="n">
-        <v>144.5298811612101</v>
+        <v>277.741552254361</v>
       </c>
       <c r="K27" t="n">
-        <v>294.6147826485601</v>
+        <v>427.826453741711</v>
       </c>
       <c r="L27" t="n">
-        <v>503.9498672632496</v>
+        <v>637.1615383564006</v>
       </c>
       <c r="M27" t="n">
-        <v>751.3795283885233</v>
+        <v>884.5911994816743</v>
       </c>
       <c r="N27" t="n">
-        <v>1007.699321192657</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O27" t="n">
-        <v>1238.571138752467</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P27" t="n">
-        <v>1659.391674476716</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q27" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R27" t="n">
         <v>1815.841701345204</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>372.955305746186</v>
+        <v>1090.144475277052</v>
       </c>
       <c r="C28" t="n">
-        <v>372.955305746186</v>
+        <v>918.1719121559681</v>
       </c>
       <c r="D28" t="n">
-        <v>209.6385328729567</v>
+        <v>754.8551392827388</v>
       </c>
       <c r="E28" t="n">
-        <v>43.43032702581021</v>
+        <v>588.6469334355924</v>
       </c>
       <c r="F28" t="n">
-        <v>43.43032702581021</v>
+        <v>416.7851592101528</v>
       </c>
       <c r="G28" t="n">
-        <v>43.43032702581021</v>
+        <v>251.440693410215</v>
       </c>
       <c r="H28" t="n">
-        <v>43.43032702581021</v>
+        <v>115.757414190205</v>
       </c>
       <c r="I28" t="n">
         <v>43.43032702581021</v>
       </c>
       <c r="J28" t="n">
-        <v>164.1518522719319</v>
+        <v>164.151852271932</v>
       </c>
       <c r="K28" t="n">
-        <v>461.1026140644539</v>
+        <v>247.303481619848</v>
       </c>
       <c r="L28" t="n">
-        <v>572.3677636523947</v>
+        <v>358.5686312077888</v>
       </c>
       <c r="M28" t="n">
-        <v>1103.746214820372</v>
+        <v>889.9470823757663</v>
       </c>
       <c r="N28" t="n">
-        <v>1618.096913875747</v>
+        <v>1404.297781431141</v>
       </c>
       <c r="O28" t="n">
-        <v>1722.234329837428</v>
+        <v>1883.617037032837</v>
       </c>
       <c r="P28" t="n">
-        <v>2121.000513751126</v>
+        <v>1969.627016373227</v>
       </c>
       <c r="Q28" t="n">
         <v>2171.516351290511</v>
@@ -6417,19 +6417,19 @@
         <v>1771.834171281379</v>
       </c>
       <c r="U28" t="n">
-        <v>1491.699495722001</v>
+        <v>1749.217108853571</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.98802833003</v>
+        <v>1749.217108853571</v>
       </c>
       <c r="W28" t="n">
-        <v>935.1356245025431</v>
+        <v>1749.217108853571</v>
       </c>
       <c r="X28" t="n">
-        <v>789.4640427685096</v>
+        <v>1506.653212299376</v>
       </c>
       <c r="Y28" t="n">
-        <v>563.1212744582516</v>
+        <v>1280.310443989118</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>870.8593003193911</v>
+        <v>691.7471995248354</v>
       </c>
       <c r="C29" t="n">
-        <v>870.8593003193911</v>
+        <v>691.7471995248354</v>
       </c>
       <c r="D29" t="n">
-        <v>870.8593003193911</v>
+        <v>691.7471995248354</v>
       </c>
       <c r="E29" t="n">
-        <v>870.8593003193911</v>
+        <v>265.770259672693</v>
       </c>
       <c r="F29" t="n">
-        <v>445.7351185087913</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="G29" t="n">
         <v>43.43032702581021</v>
@@ -6460,25 +6460,25 @@
         <v>43.43032702581021</v>
       </c>
       <c r="I29" t="n">
-        <v>86.09345146672831</v>
+        <v>86.09345146672854</v>
       </c>
       <c r="J29" t="n">
-        <v>226.188035292299</v>
+        <v>226.1880352922992</v>
       </c>
       <c r="K29" t="n">
-        <v>444.3985098873428</v>
+        <v>444.3985098873429</v>
       </c>
       <c r="L29" t="n">
-        <v>721.1044354144763</v>
+        <v>721.1044354144765</v>
       </c>
       <c r="M29" t="n">
-        <v>1034.139376672043</v>
+        <v>1034.139376672044</v>
       </c>
       <c r="N29" t="n">
         <v>1352.989294408674</v>
       </c>
       <c r="O29" t="n">
-        <v>1651.903250255482</v>
+        <v>1651.903250255483</v>
       </c>
       <c r="P29" t="n">
         <v>1901.412983312371</v>
@@ -6490,25 +6490,25 @@
         <v>2171.516351290511</v>
       </c>
       <c r="S29" t="n">
-        <v>2113.505005925658</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="T29" t="n">
-        <v>2113.505005925658</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="U29" t="n">
-        <v>1855.312838196276</v>
+        <v>1913.324183561128</v>
       </c>
       <c r="V29" t="n">
-        <v>1855.312838196276</v>
+        <v>1913.324183561128</v>
       </c>
       <c r="W29" t="n">
-        <v>1458.921488496622</v>
+        <v>1516.932833861475</v>
       </c>
       <c r="X29" t="n">
-        <v>1290.707664610921</v>
+        <v>1516.932833861475</v>
       </c>
       <c r="Y29" t="n">
-        <v>1290.707664610921</v>
+        <v>1111.595563816365</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>43.43032702581021</v>
       </c>
       <c r="I30" t="n">
-        <v>64.14840690919139</v>
+        <v>87.60571275360324</v>
       </c>
       <c r="J30" t="n">
-        <v>144.5298811612101</v>
+        <v>167.9871870056219</v>
       </c>
       <c r="K30" t="n">
-        <v>294.6147826485601</v>
+        <v>318.0720884929719</v>
       </c>
       <c r="L30" t="n">
-        <v>503.9498672632496</v>
+        <v>527.4071731076615</v>
       </c>
       <c r="M30" t="n">
-        <v>990.0466997665803</v>
+        <v>774.8368342329352</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.366492570714</v>
+        <v>1031.156627037069</v>
       </c>
       <c r="O30" t="n">
-        <v>1477.238310130524</v>
+        <v>1262.028444596878</v>
       </c>
       <c r="P30" t="n">
-        <v>1659.391674476716</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q30" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R30" t="n">
         <v>1815.841701345204</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>550.5814372455631</v>
+        <v>517.2943752140508</v>
       </c>
       <c r="C31" t="n">
-        <v>378.6088741244791</v>
+        <v>345.3218120929668</v>
       </c>
       <c r="D31" t="n">
-        <v>215.2921012512498</v>
+        <v>345.3218120929668</v>
       </c>
       <c r="E31" t="n">
-        <v>215.2921012512498</v>
+        <v>179.1136062458203</v>
       </c>
       <c r="F31" t="n">
-        <v>43.43032702581021</v>
+        <v>179.1136062458203</v>
       </c>
       <c r="G31" t="n">
-        <v>43.43032702581021</v>
+        <v>179.1136062458203</v>
       </c>
       <c r="H31" t="n">
         <v>43.43032702581021</v>
@@ -6624,22 +6624,22 @@
         <v>86.23013562371111</v>
       </c>
       <c r="K31" t="n">
-        <v>346.8757035582115</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L31" t="n">
-        <v>834.5297467373173</v>
+        <v>657.0358081507329</v>
       </c>
       <c r="M31" t="n">
-        <v>952.372717442473</v>
+        <v>1188.41425931871</v>
       </c>
       <c r="N31" t="n">
-        <v>1466.723416497847</v>
+        <v>1702.764958374085</v>
       </c>
       <c r="O31" t="n">
-        <v>1570.860832459529</v>
+        <v>2034.990534410736</v>
       </c>
       <c r="P31" t="n">
-        <v>1969.627016373227</v>
+        <v>2121.000513751126</v>
       </c>
       <c r="Q31" t="n">
         <v>2171.516351290511</v>
@@ -6648,25 +6648,25 @@
         <v>2165.507231779829</v>
       </c>
       <c r="S31" t="n">
-        <v>2011.274638730568</v>
+        <v>2165.507231779829</v>
       </c>
       <c r="T31" t="n">
-        <v>1771.834171281379</v>
+        <v>1926.06676433064</v>
       </c>
       <c r="U31" t="n">
-        <v>1491.699495722001</v>
+        <v>1645.932088771262</v>
       </c>
       <c r="V31" t="n">
-        <v>1209.98802833003</v>
+        <v>1364.220621379291</v>
       </c>
       <c r="W31" t="n">
-        <v>935.1356245025431</v>
+        <v>1089.368217551804</v>
       </c>
       <c r="X31" t="n">
-        <v>776.924205555821</v>
+        <v>933.8031122363743</v>
       </c>
       <c r="Y31" t="n">
-        <v>550.5814372455631</v>
+        <v>707.4603439261164</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>445.7351185087913</v>
+        <v>1435.464473904746</v>
       </c>
       <c r="C32" t="n">
-        <v>445.7351185087913</v>
+        <v>1008.563743918046</v>
       </c>
       <c r="D32" t="n">
-        <v>445.7351185087913</v>
+        <v>1008.563743918046</v>
       </c>
       <c r="E32" t="n">
-        <v>445.7351185087913</v>
+        <v>1008.563743918046</v>
       </c>
       <c r="F32" t="n">
-        <v>445.7351185087913</v>
+        <v>583.4395621074459</v>
       </c>
       <c r="G32" t="n">
-        <v>43.43032702581021</v>
+        <v>181.1347706244648</v>
       </c>
       <c r="H32" t="n">
         <v>43.43032702581021</v>
@@ -6700,16 +6700,16 @@
         <v>86.09345146672854</v>
       </c>
       <c r="J32" t="n">
-        <v>226.1880352922992</v>
+        <v>226.1880352922997</v>
       </c>
       <c r="K32" t="n">
-        <v>444.3985098873429</v>
+        <v>444.3985098873434</v>
       </c>
       <c r="L32" t="n">
-        <v>721.1044354144764</v>
+        <v>721.1044354144769</v>
       </c>
       <c r="M32" t="n">
-        <v>1034.139376672043</v>
+        <v>1034.139376672044</v>
       </c>
       <c r="N32" t="n">
         <v>1352.989294408674</v>
@@ -6727,25 +6727,25 @@
         <v>2171.516351290511</v>
       </c>
       <c r="S32" t="n">
-        <v>2143.907549031538</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="T32" t="n">
-        <v>1931.886999061609</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="U32" t="n">
-        <v>1673.694831332227</v>
+        <v>1855.312838196276</v>
       </c>
       <c r="V32" t="n">
-        <v>1673.694831332227</v>
+        <v>1855.312838196276</v>
       </c>
       <c r="W32" t="n">
-        <v>1277.303481632574</v>
+        <v>1855.312838196276</v>
       </c>
       <c r="X32" t="n">
-        <v>865.5834828003213</v>
+        <v>1855.312838196276</v>
       </c>
       <c r="Y32" t="n">
-        <v>865.5834828003213</v>
+        <v>1855.312838196276</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>43.43032702581021</v>
       </c>
       <c r="I33" t="n">
-        <v>64.14840690919139</v>
+        <v>87.60571275360324</v>
       </c>
       <c r="J33" t="n">
-        <v>144.5298811612101</v>
+        <v>167.9871870056219</v>
       </c>
       <c r="K33" t="n">
-        <v>294.6147826485601</v>
+        <v>318.0720884929719</v>
       </c>
       <c r="L33" t="n">
-        <v>503.9498672632496</v>
+        <v>527.4071731076615</v>
       </c>
       <c r="M33" t="n">
-        <v>751.3795283885233</v>
+        <v>774.8368342329352</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.366492570714</v>
+        <v>1031.156627037069</v>
       </c>
       <c r="O33" t="n">
-        <v>1477.238310130524</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P33" t="n">
-        <v>1659.391674476716</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q33" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R33" t="n">
         <v>1815.841701345204</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>276.0629909260246</v>
+        <v>698.5808474590293</v>
       </c>
       <c r="C34" t="n">
-        <v>104.0904278049406</v>
+        <v>698.5808474590293</v>
       </c>
       <c r="D34" t="n">
-        <v>43.43032702581021</v>
+        <v>535.2640745858</v>
       </c>
       <c r="E34" t="n">
-        <v>43.43032702581021</v>
+        <v>535.2640745858</v>
       </c>
       <c r="F34" t="n">
-        <v>43.43032702581021</v>
+        <v>416.7851592101528</v>
       </c>
       <c r="G34" t="n">
-        <v>43.43032702581021</v>
+        <v>251.440693410215</v>
       </c>
       <c r="H34" t="n">
-        <v>43.43032702581021</v>
+        <v>115.757414190205</v>
       </c>
       <c r="I34" t="n">
         <v>43.43032702581021</v>
       </c>
       <c r="J34" t="n">
-        <v>86.23013562371111</v>
+        <v>164.151852271932</v>
       </c>
       <c r="K34" t="n">
-        <v>345.5622728461731</v>
+        <v>345.5622728461728</v>
       </c>
       <c r="L34" t="n">
-        <v>456.8274224341139</v>
+        <v>456.8274224341137</v>
       </c>
       <c r="M34" t="n">
-        <v>574.6703931392697</v>
+        <v>574.6703931392694</v>
       </c>
       <c r="N34" t="n">
         <v>1089.021092194644</v>
@@ -6882,28 +6882,28 @@
         <v>2171.516351290511</v>
       </c>
       <c r="R34" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S34" t="n">
-        <v>2011.274638730568</v>
+        <v>2017.283758241249</v>
       </c>
       <c r="T34" t="n">
-        <v>1771.834171281379</v>
+        <v>1777.84329079206</v>
       </c>
       <c r="U34" t="n">
-        <v>1491.699495722001</v>
+        <v>1497.708615232682</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.98802833003</v>
+        <v>1215.997147840711</v>
       </c>
       <c r="W34" t="n">
-        <v>935.1356245025431</v>
+        <v>941.1447440132242</v>
       </c>
       <c r="X34" t="n">
-        <v>692.5717279483482</v>
+        <v>698.5808474590293</v>
       </c>
       <c r="Y34" t="n">
-        <v>466.2289596380903</v>
+        <v>698.5808474590293</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>470.3310570125101</v>
+        <v>1288.319371589018</v>
       </c>
       <c r="C35" t="n">
-        <v>43.43032702581021</v>
+        <v>1288.319371589018</v>
       </c>
       <c r="D35" t="n">
-        <v>43.43032702581021</v>
+        <v>865.0267507740184</v>
       </c>
       <c r="E35" t="n">
-        <v>43.43032702581021</v>
+        <v>745.5894102253965</v>
       </c>
       <c r="F35" t="n">
-        <v>43.43032702581021</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="G35" t="n">
-        <v>43.43032702581021</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="H35" t="n">
         <v>43.43032702581021</v>
@@ -6937,16 +6937,16 @@
         <v>86.09345146672831</v>
       </c>
       <c r="J35" t="n">
-        <v>226.188035292299</v>
+        <v>226.1880352922992</v>
       </c>
       <c r="K35" t="n">
-        <v>444.3985098873428</v>
+        <v>444.3985098873432</v>
       </c>
       <c r="L35" t="n">
-        <v>721.1044354144763</v>
+        <v>721.1044354144766</v>
       </c>
       <c r="M35" t="n">
-        <v>1034.139376672043</v>
+        <v>1034.139376672044</v>
       </c>
       <c r="N35" t="n">
         <v>1352.989294408674</v>
@@ -6955,7 +6955,7 @@
         <v>1651.903250255482</v>
       </c>
       <c r="P35" t="n">
-        <v>1901.412983312371</v>
+        <v>1901.41298331237</v>
       </c>
       <c r="Q35" t="n">
         <v>2080.956330428339</v>
@@ -6967,22 +6967,22 @@
         <v>2113.505005925658</v>
       </c>
       <c r="T35" t="n">
-        <v>2064.726105055153</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="U35" t="n">
-        <v>2064.726105055153</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="V35" t="n">
-        <v>1707.236690181403</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="W35" t="n">
-        <v>1707.236690181403</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="X35" t="n">
-        <v>1295.51669134915</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="Y35" t="n">
-        <v>890.1794213040401</v>
+        <v>1708.167735880548</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>43.43032702581021</v>
       </c>
       <c r="I36" t="n">
-        <v>64.14840690919139</v>
+        <v>87.60571275360324</v>
       </c>
       <c r="J36" t="n">
-        <v>144.5298811612101</v>
+        <v>167.9871870056219</v>
       </c>
       <c r="K36" t="n">
-        <v>294.6147826485601</v>
+        <v>318.0720884929719</v>
       </c>
       <c r="L36" t="n">
-        <v>503.9498672632496</v>
+        <v>527.4071731076615</v>
       </c>
       <c r="M36" t="n">
-        <v>751.3795283885233</v>
+        <v>774.8368342329352</v>
       </c>
       <c r="N36" t="n">
-        <v>1007.699321192657</v>
+        <v>1031.156627037069</v>
       </c>
       <c r="O36" t="n">
-        <v>1238.571138752467</v>
+        <v>1262.028444596878</v>
       </c>
       <c r="P36" t="n">
-        <v>1420.724503098659</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q36" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R36" t="n">
         <v>1815.841701345204</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>692.5717279483482</v>
+        <v>387.2646643723338</v>
       </c>
       <c r="C37" t="n">
-        <v>692.5717279483482</v>
+        <v>215.2921012512498</v>
       </c>
       <c r="D37" t="n">
-        <v>529.2549550751189</v>
+        <v>215.2921012512498</v>
       </c>
       <c r="E37" t="n">
-        <v>363.0467492279724</v>
+        <v>215.2921012512498</v>
       </c>
       <c r="F37" t="n">
-        <v>363.0467492279724</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="G37" t="n">
-        <v>251.440693410215</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="H37" t="n">
-        <v>115.757414190205</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I37" t="n">
         <v>43.43032702581021</v>
       </c>
       <c r="J37" t="n">
-        <v>164.1518522719319</v>
+        <v>164.151852271932</v>
       </c>
       <c r="K37" t="n">
         <v>247.303481619848</v>
       </c>
       <c r="L37" t="n">
-        <v>608.2009198120131</v>
+        <v>358.5686312077888</v>
       </c>
       <c r="M37" t="n">
-        <v>726.0438905171688</v>
+        <v>889.9470823757663</v>
       </c>
       <c r="N37" t="n">
-        <v>1240.394589572543</v>
+        <v>1404.297781431141</v>
       </c>
       <c r="O37" t="n">
-        <v>1722.234329837428</v>
+        <v>1886.137521696026</v>
       </c>
       <c r="P37" t="n">
-        <v>2121.000513751126</v>
+        <v>1972.147501036416</v>
       </c>
       <c r="Q37" t="n">
         <v>2171.516351290511</v>
       </c>
       <c r="R37" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S37" t="n">
-        <v>2011.274638730568</v>
+        <v>2122.476312176877</v>
       </c>
       <c r="T37" t="n">
-        <v>1771.834171281379</v>
+        <v>1883.035844727688</v>
       </c>
       <c r="U37" t="n">
-        <v>1491.699495722001</v>
+        <v>1602.90116916831</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.98802833003</v>
+        <v>1321.189701776339</v>
       </c>
       <c r="W37" t="n">
-        <v>935.1356245025431</v>
+        <v>1046.337297948852</v>
       </c>
       <c r="X37" t="n">
-        <v>692.5717279483482</v>
+        <v>803.7734013946574</v>
       </c>
       <c r="Y37" t="n">
-        <v>692.5717279483482</v>
+        <v>577.4306330843995</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1751.66798699898</v>
+        <v>1285.802873352597</v>
       </c>
       <c r="C38" t="n">
-        <v>1573.87114156052</v>
+        <v>870.8593003193911</v>
       </c>
       <c r="D38" t="n">
-        <v>1573.87114156052</v>
+        <v>870.8593003193911</v>
       </c>
       <c r="E38" t="n">
-        <v>1147.894201708378</v>
+        <v>870.8593003193911</v>
       </c>
       <c r="F38" t="n">
-        <v>722.7700198977777</v>
+        <v>445.7351185087913</v>
       </c>
       <c r="G38" t="n">
-        <v>320.4652284147967</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="H38" t="n">
         <v>43.43032702581021</v>
       </c>
       <c r="I38" t="n">
-        <v>86.09345146672877</v>
+        <v>86.09345146672854</v>
       </c>
       <c r="J38" t="n">
-        <v>226.1880352922994</v>
+        <v>226.1880352922997</v>
       </c>
       <c r="K38" t="n">
-        <v>444.3985098873432</v>
+        <v>444.3985098873434</v>
       </c>
       <c r="L38" t="n">
-        <v>721.1044354144764</v>
+        <v>721.1044354144769</v>
       </c>
       <c r="M38" t="n">
-        <v>1034.139376672043</v>
+        <v>1034.139376672044</v>
       </c>
       <c r="N38" t="n">
         <v>1352.989294408674</v>
       </c>
       <c r="O38" t="n">
-        <v>1651.903250255482</v>
+        <v>1651.903250255483</v>
       </c>
       <c r="P38" t="n">
-        <v>1901.41298331237</v>
+        <v>1901.412983312371</v>
       </c>
       <c r="Q38" t="n">
         <v>2080.956330428339</v>
@@ -7201,25 +7201,25 @@
         <v>2171.516351290511</v>
       </c>
       <c r="S38" t="n">
-        <v>2171.516351290511</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="T38" t="n">
-        <v>2171.516351290511</v>
+        <v>1901.48445595573</v>
       </c>
       <c r="U38" t="n">
-        <v>2171.516351290511</v>
+        <v>1643.292288226347</v>
       </c>
       <c r="V38" t="n">
-        <v>2171.516351290511</v>
+        <v>1285.802873352597</v>
       </c>
       <c r="W38" t="n">
-        <v>2171.516351290511</v>
+        <v>1285.802873352597</v>
       </c>
       <c r="X38" t="n">
-        <v>2171.516351290511</v>
+        <v>1285.802873352597</v>
       </c>
       <c r="Y38" t="n">
-        <v>2171.516351290511</v>
+        <v>1285.802873352597</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>954.6280860161909</v>
+        <v>598.9534360708841</v>
       </c>
       <c r="C39" t="n">
-        <v>837.1221825336956</v>
+        <v>481.4475325883889</v>
       </c>
       <c r="D39" t="n">
-        <v>733.2822240489807</v>
+        <v>377.6075741036739</v>
       </c>
       <c r="E39" t="n">
-        <v>628.5802903219179</v>
+        <v>272.9056403766111</v>
       </c>
       <c r="F39" t="n">
-        <v>534.9344600048221</v>
+        <v>179.2598100595152</v>
       </c>
       <c r="G39" t="n">
-        <v>441.969119124852</v>
+        <v>86.29446917954515</v>
       </c>
       <c r="H39" t="n">
-        <v>399.1049769711171</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I39" t="n">
-        <v>419.8230568544982</v>
+        <v>87.60571275360324</v>
       </c>
       <c r="J39" t="n">
-        <v>500.2045311065169</v>
+        <v>277.741552254361</v>
       </c>
       <c r="K39" t="n">
-        <v>650.2894325938669</v>
+        <v>427.826453741711</v>
       </c>
       <c r="L39" t="n">
-        <v>859.6245172085564</v>
+        <v>637.1615383564006</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.05417833383</v>
+        <v>884.5911994816743</v>
       </c>
       <c r="N39" t="n">
-        <v>1363.373971137964</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O39" t="n">
-        <v>1832.91296007583</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P39" t="n">
-        <v>2015.066324422022</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q39" t="n">
-        <v>2128.71915517303</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R39" t="n">
-        <v>2171.516351290511</v>
+        <v>1815.841701345204</v>
       </c>
       <c r="S39" t="n">
-        <v>2110.409230482352</v>
+        <v>1754.734580537045</v>
       </c>
       <c r="T39" t="n">
-        <v>1972.916435127966</v>
+        <v>1617.241785182659</v>
       </c>
       <c r="U39" t="n">
-        <v>1788.219846343815</v>
+        <v>1432.545196398508</v>
       </c>
       <c r="V39" t="n">
-        <v>1583.246707483081</v>
+        <v>1227.572057537774</v>
       </c>
       <c r="W39" t="n">
-        <v>1386.725330316298</v>
+        <v>1031.050680370992</v>
       </c>
       <c r="X39" t="n">
-        <v>1223.247984082961</v>
+        <v>867.5733341376545</v>
       </c>
       <c r="Y39" t="n">
-        <v>1083.555095436254</v>
+        <v>727.8804454909468</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1090.144475277052</v>
+        <v>550.5814372455631</v>
       </c>
       <c r="C40" t="n">
-        <v>918.1719121559681</v>
+        <v>378.6088741244791</v>
       </c>
       <c r="D40" t="n">
-        <v>754.8551392827388</v>
+        <v>215.2921012512498</v>
       </c>
       <c r="E40" t="n">
-        <v>588.6469334355924</v>
+        <v>215.2921012512498</v>
       </c>
       <c r="F40" t="n">
-        <v>416.7851592101528</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="G40" t="n">
-        <v>251.440693410215</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="H40" t="n">
-        <v>115.757414190205</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I40" t="n">
         <v>43.43032702581021</v>
       </c>
       <c r="J40" t="n">
-        <v>164.1518522719319</v>
+        <v>164.151852271932</v>
       </c>
       <c r="K40" t="n">
-        <v>482.7466433151692</v>
+        <v>247.303481619848</v>
       </c>
       <c r="L40" t="n">
-        <v>970.400686494275</v>
+        <v>358.5686312077888</v>
       </c>
       <c r="M40" t="n">
-        <v>1501.779137662252</v>
+        <v>889.9470823757663</v>
       </c>
       <c r="N40" t="n">
-        <v>1618.096913875747</v>
+        <v>1404.297781431141</v>
       </c>
       <c r="O40" t="n">
-        <v>1722.234329837428</v>
+        <v>1886.137521696026</v>
       </c>
       <c r="P40" t="n">
-        <v>2121.000513751126</v>
+        <v>1972.147501036416</v>
       </c>
       <c r="Q40" t="n">
         <v>2171.516351290511</v>
       </c>
       <c r="R40" t="n">
-        <v>2171.516351290511</v>
+        <v>2165.507231779829</v>
       </c>
       <c r="S40" t="n">
-        <v>2171.516351290511</v>
+        <v>2011.274638730568</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.516351290511</v>
+        <v>1771.834171281379</v>
       </c>
       <c r="U40" t="n">
-        <v>2171.516351290511</v>
+        <v>1491.699495722001</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.804883898539</v>
+        <v>1209.98802833003</v>
       </c>
       <c r="W40" t="n">
-        <v>1614.952480071052</v>
+        <v>935.1356245025431</v>
       </c>
       <c r="X40" t="n">
-        <v>1372.388583516858</v>
+        <v>692.5717279483482</v>
       </c>
       <c r="Y40" t="n">
-        <v>1146.0458152066</v>
+        <v>550.5814372455631</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>722.7700198977777</v>
+        <v>1288.319371589018</v>
       </c>
       <c r="C41" t="n">
-        <v>722.7700198977777</v>
+        <v>861.4186416023183</v>
       </c>
       <c r="D41" t="n">
-        <v>722.7700198977777</v>
+        <v>438.1260207873186</v>
       </c>
       <c r="E41" t="n">
-        <v>722.7700198977777</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="F41" t="n">
-        <v>722.7700198977777</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="G41" t="n">
-        <v>320.4652284147967</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="H41" t="n">
         <v>43.43032702581021</v>
@@ -7441,22 +7441,22 @@
         <v>2113.505005925658</v>
       </c>
       <c r="T41" t="n">
-        <v>1901.48445595573</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="U41" t="n">
-        <v>1901.48445595573</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="V41" t="n">
-        <v>1543.995041081979</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="W41" t="n">
-        <v>1147.603691382326</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="X41" t="n">
-        <v>735.8836925500732</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="Y41" t="n">
-        <v>722.7700198977777</v>
+        <v>1708.167735880548</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>43.43032702581021</v>
       </c>
       <c r="I42" t="n">
-        <v>64.14840690919141</v>
+        <v>87.60571275360324</v>
       </c>
       <c r="J42" t="n">
-        <v>144.5298811612101</v>
+        <v>277.741552254361</v>
       </c>
       <c r="K42" t="n">
-        <v>294.6147826485601</v>
+        <v>427.826453741711</v>
       </c>
       <c r="L42" t="n">
-        <v>503.9498672632496</v>
+        <v>637.1615383564006</v>
       </c>
       <c r="M42" t="n">
-        <v>751.3795283885233</v>
+        <v>884.5911994816743</v>
       </c>
       <c r="N42" t="n">
-        <v>1007.699321192657</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O42" t="n">
-        <v>1238.571138752467</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P42" t="n">
-        <v>1420.724503098659</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q42" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R42" t="n">
         <v>1815.841701345204</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>550.9153947535117</v>
+        <v>718.817336019418</v>
       </c>
       <c r="C43" t="n">
-        <v>378.9428316324277</v>
+        <v>546.844772898334</v>
       </c>
       <c r="D43" t="n">
-        <v>215.6260587591984</v>
+        <v>546.844772898334</v>
       </c>
       <c r="E43" t="n">
-        <v>215.6260587591984</v>
+        <v>380.6365670511875</v>
       </c>
       <c r="F43" t="n">
-        <v>179.1136062458203</v>
+        <v>208.7747928257479</v>
       </c>
       <c r="G43" t="n">
-        <v>179.1136062458203</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="H43" t="n">
         <v>43.43032702581021</v>
@@ -7569,22 +7569,22 @@
         <v>43.43032702581021</v>
       </c>
       <c r="J43" t="n">
-        <v>164.151852271932</v>
+        <v>86.23013562371111</v>
       </c>
       <c r="K43" t="n">
-        <v>494.5860907338701</v>
+        <v>416.6643740856492</v>
       </c>
       <c r="L43" t="n">
-        <v>982.2401339129758</v>
+        <v>904.318417264755</v>
       </c>
       <c r="M43" t="n">
-        <v>1513.618585080953</v>
+        <v>1022.161387969911</v>
       </c>
       <c r="N43" t="n">
-        <v>1629.936361294448</v>
+        <v>1138.479164183405</v>
       </c>
       <c r="O43" t="n">
-        <v>1883.617037032837</v>
+        <v>1570.860832459529</v>
       </c>
       <c r="P43" t="n">
         <v>1969.627016373227</v>
@@ -7593,28 +7593,28 @@
         <v>2171.516351290511</v>
       </c>
       <c r="R43" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S43" t="n">
-        <v>2011.274638730568</v>
+        <v>2017.283758241249</v>
       </c>
       <c r="T43" t="n">
-        <v>1771.834171281379</v>
+        <v>1777.84329079206</v>
       </c>
       <c r="U43" t="n">
-        <v>1491.699495722001</v>
+        <v>1497.708615232682</v>
       </c>
       <c r="V43" t="n">
-        <v>1209.98802833003</v>
+        <v>1410.178476869229</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.98802833003</v>
+        <v>1135.326073041742</v>
       </c>
       <c r="X43" t="n">
-        <v>967.4241317758352</v>
+        <v>1135.326073041742</v>
       </c>
       <c r="Y43" t="n">
-        <v>741.0813634655773</v>
+        <v>908.9833047314837</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>468.55450883641</v>
+        <v>880.4656033074872</v>
       </c>
       <c r="C44" t="n">
-        <v>468.55450883641</v>
+        <v>469.4072668779527</v>
       </c>
       <c r="D44" t="n">
-        <v>468.55450883641</v>
+        <v>469.4072668779527</v>
       </c>
       <c r="E44" t="n">
-        <v>468.55450883641</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="F44" t="n">
         <v>43.43032702581021</v>
@@ -7645,10 +7645,10 @@
         <v>43.43032702581021</v>
       </c>
       <c r="I44" t="n">
-        <v>86.09345146672854</v>
+        <v>86.09345146672902</v>
       </c>
       <c r="J44" t="n">
-        <v>226.1880352922992</v>
+        <v>226.1880352922997</v>
       </c>
       <c r="K44" t="n">
         <v>444.3985098873434</v>
@@ -7684,16 +7684,16 @@
         <v>1643.292288226347</v>
       </c>
       <c r="V44" t="n">
-        <v>1643.292288226347</v>
+        <v>1285.802873352597</v>
       </c>
       <c r="W44" t="n">
-        <v>1246.900938526694</v>
+        <v>1285.802873352597</v>
       </c>
       <c r="X44" t="n">
-        <v>1246.900938526694</v>
+        <v>1285.802873352597</v>
       </c>
       <c r="Y44" t="n">
-        <v>888.4028731279401</v>
+        <v>880.4656033074872</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>954.6280860161909</v>
+        <v>598.9534360708841</v>
       </c>
       <c r="C45" t="n">
-        <v>837.1221825336956</v>
+        <v>481.4475325883889</v>
       </c>
       <c r="D45" t="n">
-        <v>733.2822240489807</v>
+        <v>377.6075741036739</v>
       </c>
       <c r="E45" t="n">
-        <v>628.5802903219179</v>
+        <v>272.9056403766111</v>
       </c>
       <c r="F45" t="n">
-        <v>534.9344600048221</v>
+        <v>179.2598100595152</v>
       </c>
       <c r="G45" t="n">
-        <v>441.969119124852</v>
+        <v>86.29446917954515</v>
       </c>
       <c r="H45" t="n">
-        <v>399.1049769711171</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I45" t="n">
-        <v>419.8230568544982</v>
+        <v>87.60571275360324</v>
       </c>
       <c r="J45" t="n">
-        <v>633.4162021996679</v>
+        <v>277.741552254361</v>
       </c>
       <c r="K45" t="n">
-        <v>783.5011036870178</v>
+        <v>427.826453741711</v>
       </c>
       <c r="L45" t="n">
-        <v>992.8361883017074</v>
+        <v>637.1615383564006</v>
       </c>
       <c r="M45" t="n">
-        <v>1240.265849426981</v>
+        <v>884.5911994816743</v>
       </c>
       <c r="N45" t="n">
-        <v>1496.585642231115</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O45" t="n">
-        <v>1727.457459790924</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P45" t="n">
-        <v>1909.610824137117</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q45" t="n">
-        <v>2023.263654888124</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R45" t="n">
-        <v>2171.516351290511</v>
+        <v>1815.841701345204</v>
       </c>
       <c r="S45" t="n">
-        <v>2110.409230482352</v>
+        <v>1754.734580537045</v>
       </c>
       <c r="T45" t="n">
-        <v>1972.916435127966</v>
+        <v>1617.241785182659</v>
       </c>
       <c r="U45" t="n">
-        <v>1788.219846343815</v>
+        <v>1432.545196398508</v>
       </c>
       <c r="V45" t="n">
-        <v>1583.246707483081</v>
+        <v>1227.572057537774</v>
       </c>
       <c r="W45" t="n">
-        <v>1386.725330316298</v>
+        <v>1031.050680370992</v>
       </c>
       <c r="X45" t="n">
-        <v>1223.247984082961</v>
+        <v>867.5733341376545</v>
       </c>
       <c r="Y45" t="n">
-        <v>1083.555095436254</v>
+        <v>727.8804454909468</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1017.817388112657</v>
+        <v>882.1341088926473</v>
       </c>
       <c r="C46" t="n">
-        <v>845.8448249915733</v>
+        <v>710.1615457715633</v>
       </c>
       <c r="D46" t="n">
-        <v>682.528052118344</v>
+        <v>546.844772898334</v>
       </c>
       <c r="E46" t="n">
-        <v>516.3198462711975</v>
+        <v>380.6365670511875</v>
       </c>
       <c r="F46" t="n">
-        <v>344.4580720457579</v>
+        <v>208.7747928257479</v>
       </c>
       <c r="G46" t="n">
-        <v>179.1136062458203</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="H46" t="n">
         <v>43.43032702581021</v>
@@ -7809,19 +7809,19 @@
         <v>86.23013562371111</v>
       </c>
       <c r="K46" t="n">
-        <v>330.0597152252314</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L46" t="n">
-        <v>441.3248648131722</v>
+        <v>356.0481465445997</v>
       </c>
       <c r="M46" t="n">
-        <v>972.7033159811497</v>
+        <v>887.4265977125772</v>
       </c>
       <c r="N46" t="n">
-        <v>1089.021092194644</v>
+        <v>1401.777296767952</v>
       </c>
       <c r="O46" t="n">
-        <v>1570.860832459529</v>
+        <v>1883.617037032837</v>
       </c>
       <c r="P46" t="n">
         <v>1969.627016373227</v>
@@ -7830,28 +7830,28 @@
         <v>2171.516351290511</v>
       </c>
       <c r="R46" t="n">
-        <v>2171.516351290511</v>
+        <v>2165.507231779829</v>
       </c>
       <c r="S46" t="n">
-        <v>2171.516351290511</v>
+        <v>2011.274638730568</v>
       </c>
       <c r="T46" t="n">
-        <v>1932.075883841321</v>
+        <v>1961.396552225678</v>
       </c>
       <c r="U46" t="n">
-        <v>1651.941208281944</v>
+        <v>1681.2618766663</v>
       </c>
       <c r="V46" t="n">
-        <v>1651.941208281944</v>
+        <v>1399.550409274329</v>
       </c>
       <c r="W46" t="n">
-        <v>1377.088804454457</v>
+        <v>1124.698005446842</v>
       </c>
       <c r="X46" t="n">
-        <v>1244.160156422915</v>
+        <v>882.1341088926473</v>
       </c>
       <c r="Y46" t="n">
-        <v>1017.817388112657</v>
+        <v>882.1341088926473</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>241.077950886926</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>134.5572435284352</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,13 +8850,13 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>252.1538268729529</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>402.0534574160406</v>
@@ -8868,7 +8868,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>2.373413626466707</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>241.0779508869255</v>
       </c>
       <c r="K15" t="n">
-        <v>241.0779508869263</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9084,19 +9084,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>380.1908016072373</v>
+        <v>251.5243484385686</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>352.7252873769289</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>381.5174992961649</v>
@@ -9105,7 +9105,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>241.077950886926</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>241.0779508869263</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9324,19 +9324,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>177.9601089641871</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>402.0534574160406</v>
+        <v>331.5598508226689</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>110.8629952007465</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0779508869262</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>129.1911419454466</v>
       </c>
       <c r="M22" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N22" t="n">
-        <v>163.6276575410526</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>152.9025226039384</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>110.8629952007465</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>241.0779508869262</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
         <v>249.7804132464869</v>
@@ -9804,16 +9804,16 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>309.697195013866</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>129.1911419454466</v>
       </c>
       <c r="Q25" t="n">
         <v>152.9025226039384</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>110.8629952007465</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>241.0779508869261</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>215.9587196410162</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -10047,13 +10047,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>378.9715551919336</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0779508869262</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>110.8629952007466</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,25 +10272,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>179.2868066531155</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>230.3920808838075</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10439,10 +10439,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0779508869262</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>110.8629952007464</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>177.9601089641878</v>
+        <v>99.25130426901499</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>110.8629952007466</v>
       </c>
       <c r="Q36" t="n">
-        <v>241.0779508869262</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,10 +10749,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>252.1538268729539</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
@@ -10761,10 +10761,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>150.3565784997071</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>110.8629952007465</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0779508869259</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,25 +10983,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>237.8213754498195</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>150.3565784997071</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>110.8629952007465</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>241.0779508869259</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>249.7804132464869</v>
@@ -11226,16 +11226,16 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>151.0537977542499</v>
+        <v>331.559850822669</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
         <v>152.9025226039384</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>134.5572435284353</v>
+        <v>110.8629952007465</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11457,22 +11457,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>162.3009598521255</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>76.16286059094122</v>
       </c>
       <c r="M46" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>152.9025226039384</v>
@@ -23260,19 +23260,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>316.774946847976</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23314,16 +23314,16 @@
         <v>209.9003444702288</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>59.35962406028011</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>145.7670819425346</v>
+        <v>60.44671665079983</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>163.6910211419383</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3333288037839</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>420.3937160558771</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>57.43123191120421</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.9003444702288</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.502574005567169</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>30.86309637309822</v>
       </c>
       <c r="G16" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>31.52853401984589</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23734,10 +23734,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>221.5771558711557</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.43123191120421</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.9003444702288</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>204.529962853293</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>113.1339664220002</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>86.37147147557698</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.6910211419383</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,13 +23980,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>255.6102460520883</v>
       </c>
       <c r="V20" t="n">
-        <v>344.136324340858</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>266.7072615583122</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>103.6375213706001</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -24147,7 +24147,7 @@
         <v>134.3264464278099</v>
       </c>
       <c r="I22" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>28.3633765379513</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>78.54100652638766</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>18.16041535419686</v>
       </c>
       <c r="T23" t="n">
         <v>209.9003444702288</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>101.6301053731579</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>157.380623998064</v>
       </c>
       <c r="G25" t="n">
         <v>163.6910211419383</v>
       </c>
       <c r="H25" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>57.4312319112042</v>
+        <v>24.73459721068743</v>
       </c>
       <c r="T26" t="n">
         <v>209.9003444702288</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>207.9898604045634</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>254.9424370002536</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>95.92339167195971</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24688,13 +24688,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>200.7564066720798</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H29" t="n">
         <v>274.2645523750966</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T29" t="n">
         <v>209.9003444702288</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.071113197086</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>163.6910211419383</v>
       </c>
       <c r="H31" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>71.60381629275079</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>83.50895283139803</v>
+        <v>86.12880332637729</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -24928,13 +24928,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>274.2645523750966</v>
+        <v>137.9371532124285</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>30.09851767482103</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,10 +24979,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6301053731579</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>52.8490302612944</v>
       </c>
       <c r="G34" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>303.4742033104853</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>398.2817435681513</v>
       </c>
       <c r="H35" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>161.6092326084294</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U35" t="n">
         <v>255.6102460520883</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>53.20102588235848</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>104.1406283962717</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>246.6128457027568</v>
+        <v>11.83758538395915</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>57.4312319112042</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.921982494693</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.0460627746974</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3333288037839</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>83.50895283139806</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>30.96843362972777</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U41" t="n">
         <v>255.6102460520883</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>388.3013614188861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>133.9958284949409</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I43" t="n">
         <v>71.60381629275079</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>192.2395157382322</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>15.68396962159375</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>398.2817435681513</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.37081259989191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I46" t="n">
         <v>71.60381629275079</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>187.666757134856</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>108.5388960374272</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>342227.2157013588</v>
+        <v>342227.2157013587</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>342227.2157013587</v>
+        <v>342227.2157013589</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>342227.2157013587</v>
+        <v>342227.2157013588</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>342227.2157013588</v>
+        <v>342227.2157013589</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>342227.2157013588</v>
+        <v>342227.2157013587</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>342227.2157013588</v>
+        <v>342227.2157013589</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>342227.2157013589</v>
+        <v>342227.2157013588</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>473349.6994154219</v>
+        <v>473349.6994154218</v>
       </c>
       <c r="C2" t="n">
         <v>473349.6994154219</v>
       </c>
       <c r="D2" t="n">
-        <v>473359.7714790577</v>
+        <v>473359.7714790576</v>
       </c>
       <c r="E2" t="n">
         <v>284369.4050014748</v>
@@ -26328,34 +26328,34 @@
         <v>284369.4050014749</v>
       </c>
       <c r="G2" t="n">
+        <v>284369.4050014749</v>
+      </c>
+      <c r="H2" t="n">
         <v>284369.4050014748</v>
       </c>
-      <c r="H2" t="n">
-        <v>284369.4050014747</v>
-      </c>
       <c r="I2" t="n">
-        <v>284369.4050014748</v>
+        <v>284369.405001475</v>
       </c>
       <c r="J2" t="n">
         <v>284369.4050014748</v>
       </c>
       <c r="K2" t="n">
-        <v>284369.4050014747</v>
+        <v>284369.4050014748</v>
       </c>
       <c r="L2" t="n">
         <v>284369.4050014748</v>
       </c>
       <c r="M2" t="n">
+        <v>284369.4050014749</v>
+      </c>
+      <c r="N2" t="n">
         <v>284369.4050014748</v>
-      </c>
-      <c r="N2" t="n">
-        <v>284369.405001475</v>
       </c>
       <c r="O2" t="n">
         <v>284369.4050014748</v>
       </c>
       <c r="P2" t="n">
-        <v>284369.4050014748</v>
+        <v>284369.4050014749</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>32673.69813039072</v>
       </c>
       <c r="E3" t="n">
-        <v>533917.0150263605</v>
+        <v>533917.0150263608</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>135287.64020175</v>
+        <v>135287.6402017501</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>313397.1105558039</v>
       </c>
       <c r="E4" t="n">
+        <v>23836.70093362174</v>
+      </c>
+      <c r="F4" t="n">
         <v>23836.70093362173</v>
-      </c>
-      <c r="F4" t="n">
-        <v>23836.70093362174</v>
       </c>
       <c r="G4" t="n">
         <v>23836.70093362174</v>
@@ -26438,22 +26438,22 @@
         <v>23836.70093362174</v>
       </c>
       <c r="I4" t="n">
-        <v>23836.70093362175</v>
+        <v>23836.70093362174</v>
       </c>
       <c r="J4" t="n">
-        <v>23836.70093362175</v>
+        <v>23836.70093362174</v>
       </c>
       <c r="K4" t="n">
         <v>23836.70093362175</v>
       </c>
       <c r="L4" t="n">
-        <v>23836.70093362175</v>
+        <v>23836.70093362174</v>
       </c>
       <c r="M4" t="n">
-        <v>23836.70093362175</v>
+        <v>23836.70093362174</v>
       </c>
       <c r="N4" t="n">
-        <v>23836.70093362175</v>
+        <v>23836.70093362174</v>
       </c>
       <c r="O4" t="n">
         <v>23836.70093362174</v>
@@ -26478,16 +26478,16 @@
         <v>34459.30828506134</v>
       </c>
       <c r="E5" t="n">
-        <v>43928.07778537245</v>
+        <v>43928.07778537246</v>
       </c>
       <c r="F5" t="n">
-        <v>43928.07778537245</v>
+        <v>43928.07778537247</v>
       </c>
       <c r="G5" t="n">
-        <v>43928.07778537245</v>
+        <v>43928.07778537246</v>
       </c>
       <c r="H5" t="n">
-        <v>43928.07778537245</v>
+        <v>43928.07778537246</v>
       </c>
       <c r="I5" t="n">
         <v>43928.07778537246</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114037.6939364548</v>
+        <v>114015.9802949584</v>
       </c>
       <c r="C6" t="n">
-        <v>114037.6939364548</v>
+        <v>114015.9802949584</v>
       </c>
       <c r="D6" t="n">
-        <v>92829.65450780181</v>
+        <v>92807.97138771032</v>
       </c>
       <c r="E6" t="n">
-        <v>-317312.3887438799</v>
+        <v>-317906.7699442066</v>
       </c>
       <c r="F6" t="n">
-        <v>216604.6262824807</v>
+        <v>216010.2450821542</v>
       </c>
       <c r="G6" t="n">
-        <v>216604.6262824807</v>
+        <v>216010.2450821542</v>
       </c>
       <c r="H6" t="n">
-        <v>216604.6262824805</v>
+        <v>216010.2450821541</v>
       </c>
       <c r="I6" t="n">
-        <v>216604.6262824806</v>
+        <v>216010.2450821543</v>
       </c>
       <c r="J6" t="n">
-        <v>216604.6262824805</v>
+        <v>216010.2450821541</v>
       </c>
       <c r="K6" t="n">
-        <v>216604.6262824805</v>
+        <v>216010.2450821541</v>
       </c>
       <c r="L6" t="n">
-        <v>216604.6262824806</v>
+        <v>216010.2450821542</v>
       </c>
       <c r="M6" t="n">
-        <v>81316.9860807306</v>
+        <v>80722.60488040412</v>
       </c>
       <c r="N6" t="n">
-        <v>216604.6262824807</v>
+        <v>216010.2450821541</v>
       </c>
       <c r="O6" t="n">
-        <v>216604.6262824806</v>
+        <v>216010.2450821541</v>
       </c>
       <c r="P6" t="n">
-        <v>216604.6262824806</v>
+        <v>216010.2450821542</v>
       </c>
     </row>
   </sheetData>
@@ -26749,10 +26749,10 @@
         <v>500.9646443007663</v>
       </c>
       <c r="F3" t="n">
-        <v>500.9646443007662</v>
+        <v>500.9646443007664</v>
       </c>
       <c r="G3" t="n">
-        <v>500.9646443007662</v>
+        <v>500.9646443007663</v>
       </c>
       <c r="H3" t="n">
         <v>500.9646443007663</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>542.8790878226274</v>
+        <v>542.8790878226276</v>
       </c>
       <c r="F4" t="n">
-        <v>542.8790878226274</v>
+        <v>542.8790878226276</v>
       </c>
       <c r="G4" t="n">
-        <v>542.8790878226274</v>
+        <v>542.8790878226276</v>
       </c>
       <c r="H4" t="n">
-        <v>542.8790878226274</v>
+        <v>542.8790878226276</v>
       </c>
       <c r="I4" t="n">
         <v>542.8790878226276</v>
@@ -26968,7 +26968,7 @@
         <v>38.15175619547406</v>
       </c>
       <c r="E3" t="n">
-        <v>462.8128881052922</v>
+        <v>462.8128881052923</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>542.8790878226274</v>
+        <v>542.8790878226276</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>542.8790878226274</v>
+        <v>542.8790878226276</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>542.8790878226274</v>
+        <v>542.8790878226276</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.013928218294536</v>
+        <v>2.013928218294537</v>
       </c>
       <c r="H11" t="n">
         <v>20.62514236560893</v>
       </c>
       <c r="I11" t="n">
-        <v>77.64196763580019</v>
+        <v>77.6419676358002</v>
       </c>
       <c r="J11" t="n">
         <v>170.9296401174761</v>
@@ -31767,22 +31767,22 @@
         <v>256.1792215978838</v>
       </c>
       <c r="L11" t="n">
-        <v>317.8129773085153</v>
+        <v>317.8129773085154</v>
       </c>
       <c r="M11" t="n">
         <v>353.6281732606108</v>
       </c>
       <c r="N11" t="n">
-        <v>359.3502468108401</v>
+        <v>359.3502468108402</v>
       </c>
       <c r="O11" t="n">
-        <v>339.3242480901738</v>
+        <v>339.3242480901739</v>
       </c>
       <c r="P11" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q11" t="n">
-        <v>217.4815908833542</v>
+        <v>217.4815908833543</v>
       </c>
       <c r="R11" t="n">
         <v>126.5074184424443</v>
@@ -31791,7 +31791,7 @@
         <v>45.89238927438679</v>
       </c>
       <c r="T11" t="n">
-        <v>8.815970775584336</v>
+        <v>8.815970775584338</v>
       </c>
       <c r="U11" t="n">
         <v>0.1611142574635629</v>
@@ -31837,10 +31837,10 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I12" t="n">
-        <v>37.09974016755675</v>
+        <v>37.09974016755676</v>
       </c>
       <c r="J12" t="n">
-        <v>101.8045226687057</v>
+        <v>101.8045226687058</v>
       </c>
       <c r="K12" t="n">
         <v>174.0001444266162</v>
@@ -31864,16 +31864,16 @@
         <v>137.5478774314104</v>
       </c>
       <c r="R12" t="n">
-        <v>66.90241042190236</v>
+        <v>66.90241042190237</v>
       </c>
       <c r="S12" t="n">
-        <v>20.0149553642806</v>
+        <v>20.01495536428061</v>
       </c>
       <c r="T12" t="n">
-        <v>4.343268944456642</v>
+        <v>4.343268944456643</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07089122325010846</v>
+        <v>0.07089122325010848</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,7 +31910,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9033788667718735</v>
+        <v>0.9033788667718736</v>
       </c>
       <c r="H13" t="n">
         <v>8.031859379117209</v>
@@ -31919,10 +31919,10 @@
         <v>27.16706628437599</v>
       </c>
       <c r="J13" t="n">
-        <v>63.86888588077145</v>
+        <v>63.86888588077147</v>
       </c>
       <c r="K13" t="n">
-        <v>104.9561992485867</v>
+        <v>104.9561992485868</v>
       </c>
       <c r="L13" t="n">
         <v>134.3077998835202</v>
@@ -31940,7 +31940,7 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.6456612894157</v>
+        <v>75.64566128941571</v>
       </c>
       <c r="R13" t="n">
         <v>40.61919886412441</v>
@@ -31949,7 +31949,7 @@
         <v>15.74342988728801</v>
       </c>
       <c r="T13" t="n">
-        <v>3.85989152166164</v>
+        <v>3.859891521661641</v>
       </c>
       <c r="U13" t="n">
         <v>0.04927521091482952</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.013928218294536</v>
+        <v>2.013928218294537</v>
       </c>
       <c r="H14" t="n">
-        <v>20.62514236560892</v>
+        <v>20.62514236560893</v>
       </c>
       <c r="I14" t="n">
-        <v>77.64196763580017</v>
+        <v>77.6419676358002</v>
       </c>
       <c r="J14" t="n">
-        <v>170.929640117476</v>
+        <v>170.9296401174761</v>
       </c>
       <c r="K14" t="n">
-        <v>256.1792215978838</v>
+        <v>256.1792215978839</v>
       </c>
       <c r="L14" t="n">
-        <v>317.8129773085153</v>
+        <v>317.8129773085154</v>
       </c>
       <c r="M14" t="n">
-        <v>353.6281732606107</v>
+        <v>353.6281732606108</v>
       </c>
       <c r="N14" t="n">
-        <v>359.3502468108401</v>
+        <v>359.3502468108402</v>
       </c>
       <c r="O14" t="n">
-        <v>339.3242480901738</v>
+        <v>339.3242480901739</v>
       </c>
       <c r="P14" t="n">
-        <v>289.6053952010274</v>
+        <v>289.6053952010275</v>
       </c>
       <c r="Q14" t="n">
-        <v>217.4815908833542</v>
+        <v>217.4815908833543</v>
       </c>
       <c r="R14" t="n">
         <v>126.5074184424443</v>
       </c>
       <c r="S14" t="n">
-        <v>45.89238927438679</v>
+        <v>45.8923892743868</v>
       </c>
       <c r="T14" t="n">
-        <v>8.815970775584336</v>
+        <v>8.81597077558434</v>
       </c>
       <c r="U14" t="n">
         <v>0.1611142574635629</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.077546593401648</v>
+        <v>1.077546593401649</v>
       </c>
       <c r="H15" t="n">
         <v>10.40683157311592</v>
       </c>
       <c r="I15" t="n">
-        <v>37.09974016755675</v>
+        <v>37.09974016755676</v>
       </c>
       <c r="J15" t="n">
-        <v>101.8045226687057</v>
+        <v>101.8045226687058</v>
       </c>
       <c r="K15" t="n">
-        <v>174.0001444266161</v>
+        <v>174.0001444266162</v>
       </c>
       <c r="L15" t="n">
-        <v>233.9646671331079</v>
+        <v>233.964667133108</v>
       </c>
       <c r="M15" t="n">
-        <v>273.0257311439175</v>
+        <v>273.0257311439177</v>
       </c>
       <c r="N15" t="n">
-        <v>280.2519098338786</v>
+        <v>280.2519098338788</v>
       </c>
       <c r="O15" t="n">
-        <v>256.3757458432421</v>
+        <v>256.3757458432422</v>
       </c>
       <c r="P15" t="n">
-        <v>205.7641385242147</v>
+        <v>205.7641385242148</v>
       </c>
       <c r="Q15" t="n">
-        <v>137.5478774314104</v>
+        <v>137.5478774314105</v>
       </c>
       <c r="R15" t="n">
-        <v>66.90241042190236</v>
+        <v>66.90241042190237</v>
       </c>
       <c r="S15" t="n">
-        <v>20.0149553642806</v>
+        <v>20.01495536428061</v>
       </c>
       <c r="T15" t="n">
-        <v>4.343268944456642</v>
+        <v>4.343268944456643</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07089122325010846</v>
+        <v>0.07089122325010848</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9033788667718734</v>
+        <v>0.9033788667718737</v>
       </c>
       <c r="H16" t="n">
-        <v>8.031859379117208</v>
+        <v>8.031859379117211</v>
       </c>
       <c r="I16" t="n">
-        <v>27.16706628437598</v>
+        <v>27.16706628437599</v>
       </c>
       <c r="J16" t="n">
-        <v>63.86888588077144</v>
+        <v>63.86888588077147</v>
       </c>
       <c r="K16" t="n">
-        <v>104.9561992485867</v>
+        <v>104.9561992485868</v>
       </c>
       <c r="L16" t="n">
         <v>134.3077998835202</v>
@@ -32171,25 +32171,25 @@
         <v>138.2416042215542</v>
       </c>
       <c r="O16" t="n">
-        <v>127.6884965506281</v>
+        <v>127.6884965506282</v>
       </c>
       <c r="P16" t="n">
         <v>109.2595676684818</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.6456612894157</v>
+        <v>75.64566128941573</v>
       </c>
       <c r="R16" t="n">
-        <v>40.61919886412441</v>
+        <v>40.61919886412442</v>
       </c>
       <c r="S16" t="n">
         <v>15.74342988728801</v>
       </c>
       <c r="T16" t="n">
-        <v>3.85989152166164</v>
+        <v>3.859891521661641</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04927521091482952</v>
+        <v>0.04927521091482953</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.013928218294536</v>
+        <v>2.013928218294537</v>
       </c>
       <c r="H17" t="n">
-        <v>20.62514236560892</v>
+        <v>20.62514236560893</v>
       </c>
       <c r="I17" t="n">
-        <v>77.64196763580017</v>
+        <v>77.6419676358002</v>
       </c>
       <c r="J17" t="n">
-        <v>170.929640117476</v>
+        <v>170.9296401174761</v>
       </c>
       <c r="K17" t="n">
         <v>256.1792215978838</v>
       </c>
       <c r="L17" t="n">
-        <v>317.8129773085153</v>
+        <v>317.8129773085154</v>
       </c>
       <c r="M17" t="n">
-        <v>353.6281732606107</v>
+        <v>353.6281732606108</v>
       </c>
       <c r="N17" t="n">
-        <v>359.3502468108401</v>
+        <v>359.3502468108402</v>
       </c>
       <c r="O17" t="n">
-        <v>339.3242480901738</v>
+        <v>339.3242480901739</v>
       </c>
       <c r="P17" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q17" t="n">
-        <v>217.4815908833542</v>
+        <v>217.4815908833543</v>
       </c>
       <c r="R17" t="n">
         <v>126.5074184424443</v>
@@ -32265,7 +32265,7 @@
         <v>45.89238927438679</v>
       </c>
       <c r="T17" t="n">
-        <v>8.815970775584336</v>
+        <v>8.815970775584338</v>
       </c>
       <c r="U17" t="n">
         <v>0.1611142574635629</v>
@@ -32311,43 +32311,43 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I18" t="n">
-        <v>37.09974016755675</v>
+        <v>37.09974016755676</v>
       </c>
       <c r="J18" t="n">
-        <v>101.8045226687057</v>
+        <v>101.8045226687058</v>
       </c>
       <c r="K18" t="n">
-        <v>174.0001444266161</v>
+        <v>174.0001444266162</v>
       </c>
       <c r="L18" t="n">
         <v>233.9646671331079</v>
       </c>
       <c r="M18" t="n">
-        <v>273.0257311439175</v>
+        <v>273.0257311439176</v>
       </c>
       <c r="N18" t="n">
-        <v>280.2519098338786</v>
+        <v>280.2519098338787</v>
       </c>
       <c r="O18" t="n">
-        <v>256.3757458432421</v>
+        <v>256.3757458432422</v>
       </c>
       <c r="P18" t="n">
-        <v>205.7641385242147</v>
+        <v>205.7641385242148</v>
       </c>
       <c r="Q18" t="n">
         <v>137.5478774314104</v>
       </c>
       <c r="R18" t="n">
-        <v>66.90241042190236</v>
+        <v>66.90241042190237</v>
       </c>
       <c r="S18" t="n">
-        <v>20.0149553642806</v>
+        <v>20.01495536428061</v>
       </c>
       <c r="T18" t="n">
-        <v>4.343268944456642</v>
+        <v>4.343268944456643</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07089122325010846</v>
+        <v>0.07089122325010848</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9033788667718734</v>
+        <v>0.9033788667718736</v>
       </c>
       <c r="H19" t="n">
-        <v>8.031859379117208</v>
+        <v>8.031859379117209</v>
       </c>
       <c r="I19" t="n">
-        <v>27.16706628437598</v>
+        <v>27.16706628437599</v>
       </c>
       <c r="J19" t="n">
-        <v>63.86888588077144</v>
+        <v>63.86888588077147</v>
       </c>
       <c r="K19" t="n">
-        <v>104.9561992485867</v>
+        <v>104.9561992485868</v>
       </c>
       <c r="L19" t="n">
         <v>134.3077998835202</v>
@@ -32414,7 +32414,7 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q19" t="n">
-        <v>75.6456612894157</v>
+        <v>75.64566128941571</v>
       </c>
       <c r="R19" t="n">
         <v>40.61919886412441</v>
@@ -32423,7 +32423,7 @@
         <v>15.74342988728801</v>
       </c>
       <c r="T19" t="n">
-        <v>3.85989152166164</v>
+        <v>3.859891521661641</v>
       </c>
       <c r="U19" t="n">
         <v>0.04927521091482952</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.013928218294536</v>
+        <v>2.013928218294537</v>
       </c>
       <c r="H20" t="n">
         <v>20.62514236560893</v>
       </c>
       <c r="I20" t="n">
-        <v>77.64196763580019</v>
+        <v>77.6419676358002</v>
       </c>
       <c r="J20" t="n">
         <v>170.9296401174761</v>
@@ -32478,22 +32478,22 @@
         <v>256.1792215978838</v>
       </c>
       <c r="L20" t="n">
-        <v>317.8129773085153</v>
+        <v>317.8129773085154</v>
       </c>
       <c r="M20" t="n">
         <v>353.6281732606108</v>
       </c>
       <c r="N20" t="n">
-        <v>359.3502468108401</v>
+        <v>359.3502468108402</v>
       </c>
       <c r="O20" t="n">
-        <v>339.3242480901738</v>
+        <v>339.3242480901739</v>
       </c>
       <c r="P20" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q20" t="n">
-        <v>217.4815908833542</v>
+        <v>217.4815908833543</v>
       </c>
       <c r="R20" t="n">
         <v>126.5074184424443</v>
@@ -32502,7 +32502,7 @@
         <v>45.89238927438679</v>
       </c>
       <c r="T20" t="n">
-        <v>8.815970775584336</v>
+        <v>8.815970775584338</v>
       </c>
       <c r="U20" t="n">
         <v>0.1611142574635629</v>
@@ -32548,10 +32548,10 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I21" t="n">
-        <v>37.09974016755675</v>
+        <v>37.09974016755676</v>
       </c>
       <c r="J21" t="n">
-        <v>101.8045226687057</v>
+        <v>101.8045226687058</v>
       </c>
       <c r="K21" t="n">
         <v>174.0001444266162</v>
@@ -32575,16 +32575,16 @@
         <v>137.5478774314104</v>
       </c>
       <c r="R21" t="n">
-        <v>66.90241042190236</v>
+        <v>66.90241042190237</v>
       </c>
       <c r="S21" t="n">
-        <v>20.0149553642806</v>
+        <v>20.01495536428061</v>
       </c>
       <c r="T21" t="n">
-        <v>4.343268944456642</v>
+        <v>4.343268944456643</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07089122325010846</v>
+        <v>0.07089122325010848</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,7 +32621,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9033788667718735</v>
+        <v>0.9033788667718736</v>
       </c>
       <c r="H22" t="n">
         <v>8.031859379117209</v>
@@ -32630,10 +32630,10 @@
         <v>27.16706628437599</v>
       </c>
       <c r="J22" t="n">
-        <v>63.86888588077145</v>
+        <v>63.86888588077147</v>
       </c>
       <c r="K22" t="n">
-        <v>104.9561992485867</v>
+        <v>104.9561992485868</v>
       </c>
       <c r="L22" t="n">
         <v>134.3077998835202</v>
@@ -32651,7 +32651,7 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q22" t="n">
-        <v>75.6456612894157</v>
+        <v>75.64566128941571</v>
       </c>
       <c r="R22" t="n">
         <v>40.61919886412441</v>
@@ -32660,7 +32660,7 @@
         <v>15.74342988728801</v>
       </c>
       <c r="T22" t="n">
-        <v>3.85989152166164</v>
+        <v>3.859891521661641</v>
       </c>
       <c r="U22" t="n">
         <v>0.04927521091482952</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.013928218294536</v>
+        <v>2.013928218294537</v>
       </c>
       <c r="H23" t="n">
         <v>20.62514236560893</v>
       </c>
       <c r="I23" t="n">
-        <v>77.64196763580019</v>
+        <v>77.6419676358002</v>
       </c>
       <c r="J23" t="n">
         <v>170.9296401174761</v>
@@ -32715,22 +32715,22 @@
         <v>256.1792215978838</v>
       </c>
       <c r="L23" t="n">
-        <v>317.8129773085153</v>
+        <v>317.8129773085154</v>
       </c>
       <c r="M23" t="n">
         <v>353.6281732606108</v>
       </c>
       <c r="N23" t="n">
-        <v>359.3502468108401</v>
+        <v>359.3502468108402</v>
       </c>
       <c r="O23" t="n">
-        <v>339.3242480901738</v>
+        <v>339.3242480901739</v>
       </c>
       <c r="P23" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q23" t="n">
-        <v>217.4815908833542</v>
+        <v>217.4815908833543</v>
       </c>
       <c r="R23" t="n">
         <v>126.5074184424443</v>
@@ -32739,7 +32739,7 @@
         <v>45.89238927438679</v>
       </c>
       <c r="T23" t="n">
-        <v>8.815970775584336</v>
+        <v>8.815970775584338</v>
       </c>
       <c r="U23" t="n">
         <v>0.1611142574635629</v>
@@ -32785,10 +32785,10 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I24" t="n">
-        <v>37.09974016755675</v>
+        <v>37.09974016755676</v>
       </c>
       <c r="J24" t="n">
-        <v>101.8045226687057</v>
+        <v>101.8045226687058</v>
       </c>
       <c r="K24" t="n">
         <v>174.0001444266162</v>
@@ -32812,16 +32812,16 @@
         <v>137.5478774314104</v>
       </c>
       <c r="R24" t="n">
-        <v>66.90241042190236</v>
+        <v>66.90241042190237</v>
       </c>
       <c r="S24" t="n">
-        <v>20.0149553642806</v>
+        <v>20.01495536428061</v>
       </c>
       <c r="T24" t="n">
-        <v>4.343268944456642</v>
+        <v>4.343268944456643</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07089122325010846</v>
+        <v>0.07089122325010848</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,7 +32858,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9033788667718735</v>
+        <v>0.9033788667718736</v>
       </c>
       <c r="H25" t="n">
         <v>8.031859379117209</v>
@@ -32867,10 +32867,10 @@
         <v>27.16706628437599</v>
       </c>
       <c r="J25" t="n">
-        <v>63.86888588077145</v>
+        <v>63.86888588077147</v>
       </c>
       <c r="K25" t="n">
-        <v>104.9561992485867</v>
+        <v>104.9561992485868</v>
       </c>
       <c r="L25" t="n">
         <v>134.3077998835202</v>
@@ -32888,7 +32888,7 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q25" t="n">
-        <v>75.6456612894157</v>
+        <v>75.64566128941571</v>
       </c>
       <c r="R25" t="n">
         <v>40.61919886412441</v>
@@ -32897,7 +32897,7 @@
         <v>15.74342988728801</v>
       </c>
       <c r="T25" t="n">
-        <v>3.85989152166164</v>
+        <v>3.859891521661641</v>
       </c>
       <c r="U25" t="n">
         <v>0.04927521091482952</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.013928218294536</v>
+        <v>2.013928218294537</v>
       </c>
       <c r="H26" t="n">
         <v>20.62514236560893</v>
       </c>
       <c r="I26" t="n">
-        <v>77.64196763580019</v>
+        <v>77.6419676358002</v>
       </c>
       <c r="J26" t="n">
         <v>170.9296401174761</v>
@@ -32952,22 +32952,22 @@
         <v>256.1792215978838</v>
       </c>
       <c r="L26" t="n">
-        <v>317.8129773085153</v>
+        <v>317.8129773085154</v>
       </c>
       <c r="M26" t="n">
         <v>353.6281732606108</v>
       </c>
       <c r="N26" t="n">
-        <v>359.3502468108401</v>
+        <v>359.3502468108402</v>
       </c>
       <c r="O26" t="n">
-        <v>339.3242480901738</v>
+        <v>339.3242480901739</v>
       </c>
       <c r="P26" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q26" t="n">
-        <v>217.4815908833542</v>
+        <v>217.4815908833543</v>
       </c>
       <c r="R26" t="n">
         <v>126.5074184424443</v>
@@ -32976,7 +32976,7 @@
         <v>45.89238927438679</v>
       </c>
       <c r="T26" t="n">
-        <v>8.815970775584336</v>
+        <v>8.815970775584338</v>
       </c>
       <c r="U26" t="n">
         <v>0.1611142574635629</v>
@@ -33022,10 +33022,10 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I27" t="n">
-        <v>37.09974016755675</v>
+        <v>37.09974016755676</v>
       </c>
       <c r="J27" t="n">
-        <v>101.8045226687057</v>
+        <v>101.8045226687058</v>
       </c>
       <c r="K27" t="n">
         <v>174.0001444266162</v>
@@ -33049,16 +33049,16 @@
         <v>137.5478774314104</v>
       </c>
       <c r="R27" t="n">
-        <v>66.90241042190236</v>
+        <v>66.90241042190237</v>
       </c>
       <c r="S27" t="n">
-        <v>20.0149553642806</v>
+        <v>20.01495536428061</v>
       </c>
       <c r="T27" t="n">
-        <v>4.343268944456642</v>
+        <v>4.343268944456643</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07089122325010846</v>
+        <v>0.07089122325010848</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,7 +33095,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9033788667718735</v>
+        <v>0.9033788667718736</v>
       </c>
       <c r="H28" t="n">
         <v>8.031859379117209</v>
@@ -33104,10 +33104,10 @@
         <v>27.16706628437599</v>
       </c>
       <c r="J28" t="n">
-        <v>63.86888588077145</v>
+        <v>63.86888588077147</v>
       </c>
       <c r="K28" t="n">
-        <v>104.9561992485867</v>
+        <v>104.9561992485868</v>
       </c>
       <c r="L28" t="n">
         <v>134.3077998835202</v>
@@ -33125,7 +33125,7 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.6456612894157</v>
+        <v>75.64566128941571</v>
       </c>
       <c r="R28" t="n">
         <v>40.61919886412441</v>
@@ -33134,7 +33134,7 @@
         <v>15.74342988728801</v>
       </c>
       <c r="T28" t="n">
-        <v>3.85989152166164</v>
+        <v>3.859891521661641</v>
       </c>
       <c r="U28" t="n">
         <v>0.04927521091482952</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.013928218294536</v>
+        <v>2.013928218294537</v>
       </c>
       <c r="H29" t="n">
         <v>20.62514236560893</v>
       </c>
       <c r="I29" t="n">
-        <v>77.64196763580019</v>
+        <v>77.6419676358002</v>
       </c>
       <c r="J29" t="n">
         <v>170.9296401174761</v>
@@ -33189,22 +33189,22 @@
         <v>256.1792215978838</v>
       </c>
       <c r="L29" t="n">
-        <v>317.8129773085153</v>
+        <v>317.8129773085154</v>
       </c>
       <c r="M29" t="n">
         <v>353.6281732606108</v>
       </c>
       <c r="N29" t="n">
-        <v>359.3502468108401</v>
+        <v>359.3502468108402</v>
       </c>
       <c r="O29" t="n">
-        <v>339.3242480901738</v>
+        <v>339.3242480901739</v>
       </c>
       <c r="P29" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q29" t="n">
-        <v>217.4815908833542</v>
+        <v>217.4815908833543</v>
       </c>
       <c r="R29" t="n">
         <v>126.5074184424443</v>
@@ -33213,7 +33213,7 @@
         <v>45.89238927438679</v>
       </c>
       <c r="T29" t="n">
-        <v>8.815970775584336</v>
+        <v>8.815970775584338</v>
       </c>
       <c r="U29" t="n">
         <v>0.1611142574635629</v>
@@ -33259,10 +33259,10 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I30" t="n">
-        <v>37.09974016755675</v>
+        <v>37.09974016755676</v>
       </c>
       <c r="J30" t="n">
-        <v>101.8045226687057</v>
+        <v>101.8045226687058</v>
       </c>
       <c r="K30" t="n">
         <v>174.0001444266162</v>
@@ -33286,16 +33286,16 @@
         <v>137.5478774314104</v>
       </c>
       <c r="R30" t="n">
-        <v>66.90241042190236</v>
+        <v>66.90241042190237</v>
       </c>
       <c r="S30" t="n">
-        <v>20.0149553642806</v>
+        <v>20.01495536428061</v>
       </c>
       <c r="T30" t="n">
-        <v>4.343268944456642</v>
+        <v>4.343268944456643</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07089122325010846</v>
+        <v>0.07089122325010848</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,7 +33332,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9033788667718735</v>
+        <v>0.9033788667718736</v>
       </c>
       <c r="H31" t="n">
         <v>8.031859379117209</v>
@@ -33341,10 +33341,10 @@
         <v>27.16706628437599</v>
       </c>
       <c r="J31" t="n">
-        <v>63.86888588077145</v>
+        <v>63.86888588077147</v>
       </c>
       <c r="K31" t="n">
-        <v>104.9561992485867</v>
+        <v>104.9561992485868</v>
       </c>
       <c r="L31" t="n">
         <v>134.3077998835202</v>
@@ -33362,7 +33362,7 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.6456612894157</v>
+        <v>75.64566128941571</v>
       </c>
       <c r="R31" t="n">
         <v>40.61919886412441</v>
@@ -33371,7 +33371,7 @@
         <v>15.74342988728801</v>
       </c>
       <c r="T31" t="n">
-        <v>3.85989152166164</v>
+        <v>3.859891521661641</v>
       </c>
       <c r="U31" t="n">
         <v>0.04927521091482952</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.013928218294536</v>
+        <v>2.013928218294537</v>
       </c>
       <c r="H32" t="n">
         <v>20.62514236560893</v>
       </c>
       <c r="I32" t="n">
-        <v>77.64196763580019</v>
+        <v>77.6419676358002</v>
       </c>
       <c r="J32" t="n">
         <v>170.9296401174761</v>
@@ -33426,22 +33426,22 @@
         <v>256.1792215978838</v>
       </c>
       <c r="L32" t="n">
-        <v>317.8129773085153</v>
+        <v>317.8129773085154</v>
       </c>
       <c r="M32" t="n">
         <v>353.6281732606108</v>
       </c>
       <c r="N32" t="n">
-        <v>359.3502468108401</v>
+        <v>359.3502468108402</v>
       </c>
       <c r="O32" t="n">
-        <v>339.3242480901738</v>
+        <v>339.3242480901739</v>
       </c>
       <c r="P32" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q32" t="n">
-        <v>217.4815908833542</v>
+        <v>217.4815908833543</v>
       </c>
       <c r="R32" t="n">
         <v>126.5074184424443</v>
@@ -33450,7 +33450,7 @@
         <v>45.89238927438679</v>
       </c>
       <c r="T32" t="n">
-        <v>8.815970775584336</v>
+        <v>8.815970775584338</v>
       </c>
       <c r="U32" t="n">
         <v>0.1611142574635629</v>
@@ -33496,10 +33496,10 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I33" t="n">
-        <v>37.09974016755675</v>
+        <v>37.09974016755676</v>
       </c>
       <c r="J33" t="n">
-        <v>101.8045226687057</v>
+        <v>101.8045226687058</v>
       </c>
       <c r="K33" t="n">
         <v>174.0001444266162</v>
@@ -33523,16 +33523,16 @@
         <v>137.5478774314104</v>
       </c>
       <c r="R33" t="n">
-        <v>66.90241042190236</v>
+        <v>66.90241042190237</v>
       </c>
       <c r="S33" t="n">
-        <v>20.0149553642806</v>
+        <v>20.01495536428061</v>
       </c>
       <c r="T33" t="n">
-        <v>4.343268944456642</v>
+        <v>4.343268944456643</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07089122325010846</v>
+        <v>0.07089122325010848</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,7 +33569,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9033788667718735</v>
+        <v>0.9033788667718736</v>
       </c>
       <c r="H34" t="n">
         <v>8.031859379117209</v>
@@ -33578,10 +33578,10 @@
         <v>27.16706628437599</v>
       </c>
       <c r="J34" t="n">
-        <v>63.86888588077145</v>
+        <v>63.86888588077147</v>
       </c>
       <c r="K34" t="n">
-        <v>104.9561992485867</v>
+        <v>104.9561992485868</v>
       </c>
       <c r="L34" t="n">
         <v>134.3077998835202</v>
@@ -33599,7 +33599,7 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q34" t="n">
-        <v>75.6456612894157</v>
+        <v>75.64566128941571</v>
       </c>
       <c r="R34" t="n">
         <v>40.61919886412441</v>
@@ -33608,7 +33608,7 @@
         <v>15.74342988728801</v>
       </c>
       <c r="T34" t="n">
-        <v>3.85989152166164</v>
+        <v>3.859891521661641</v>
       </c>
       <c r="U34" t="n">
         <v>0.04927521091482952</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.013928218294536</v>
+        <v>2.013928218294537</v>
       </c>
       <c r="H35" t="n">
         <v>20.62514236560893</v>
       </c>
       <c r="I35" t="n">
-        <v>77.64196763580019</v>
+        <v>77.6419676358002</v>
       </c>
       <c r="J35" t="n">
         <v>170.9296401174761</v>
@@ -33663,22 +33663,22 @@
         <v>256.1792215978838</v>
       </c>
       <c r="L35" t="n">
-        <v>317.8129773085153</v>
+        <v>317.8129773085154</v>
       </c>
       <c r="M35" t="n">
         <v>353.6281732606108</v>
       </c>
       <c r="N35" t="n">
-        <v>359.3502468108401</v>
+        <v>359.3502468108402</v>
       </c>
       <c r="O35" t="n">
-        <v>339.3242480901738</v>
+        <v>339.3242480901739</v>
       </c>
       <c r="P35" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q35" t="n">
-        <v>217.4815908833542</v>
+        <v>217.4815908833543</v>
       </c>
       <c r="R35" t="n">
         <v>126.5074184424443</v>
@@ -33687,7 +33687,7 @@
         <v>45.89238927438679</v>
       </c>
       <c r="T35" t="n">
-        <v>8.815970775584336</v>
+        <v>8.815970775584338</v>
       </c>
       <c r="U35" t="n">
         <v>0.1611142574635629</v>
@@ -33733,10 +33733,10 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I36" t="n">
-        <v>37.09974016755675</v>
+        <v>37.09974016755676</v>
       </c>
       <c r="J36" t="n">
-        <v>101.8045226687057</v>
+        <v>101.8045226687058</v>
       </c>
       <c r="K36" t="n">
         <v>174.0001444266162</v>
@@ -33760,16 +33760,16 @@
         <v>137.5478774314104</v>
       </c>
       <c r="R36" t="n">
-        <v>66.90241042190236</v>
+        <v>66.90241042190237</v>
       </c>
       <c r="S36" t="n">
-        <v>20.0149553642806</v>
+        <v>20.01495536428061</v>
       </c>
       <c r="T36" t="n">
-        <v>4.343268944456642</v>
+        <v>4.343268944456643</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07089122325010846</v>
+        <v>0.07089122325010848</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,7 +33806,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9033788667718735</v>
+        <v>0.9033788667718736</v>
       </c>
       <c r="H37" t="n">
         <v>8.031859379117209</v>
@@ -33815,10 +33815,10 @@
         <v>27.16706628437599</v>
       </c>
       <c r="J37" t="n">
-        <v>63.86888588077145</v>
+        <v>63.86888588077147</v>
       </c>
       <c r="K37" t="n">
-        <v>104.9561992485867</v>
+        <v>104.9561992485868</v>
       </c>
       <c r="L37" t="n">
         <v>134.3077998835202</v>
@@ -33836,7 +33836,7 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q37" t="n">
-        <v>75.6456612894157</v>
+        <v>75.64566128941571</v>
       </c>
       <c r="R37" t="n">
         <v>40.61919886412441</v>
@@ -33845,7 +33845,7 @@
         <v>15.74342988728801</v>
       </c>
       <c r="T37" t="n">
-        <v>3.85989152166164</v>
+        <v>3.859891521661641</v>
       </c>
       <c r="U37" t="n">
         <v>0.04927521091482952</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.013928218294536</v>
+        <v>2.013928218294537</v>
       </c>
       <c r="H38" t="n">
         <v>20.62514236560893</v>
       </c>
       <c r="I38" t="n">
-        <v>77.64196763580019</v>
+        <v>77.6419676358002</v>
       </c>
       <c r="J38" t="n">
         <v>170.9296401174761</v>
@@ -33900,22 +33900,22 @@
         <v>256.1792215978838</v>
       </c>
       <c r="L38" t="n">
-        <v>317.8129773085153</v>
+        <v>317.8129773085154</v>
       </c>
       <c r="M38" t="n">
         <v>353.6281732606108</v>
       </c>
       <c r="N38" t="n">
-        <v>359.3502468108401</v>
+        <v>359.3502468108402</v>
       </c>
       <c r="O38" t="n">
-        <v>339.3242480901738</v>
+        <v>339.3242480901739</v>
       </c>
       <c r="P38" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q38" t="n">
-        <v>217.4815908833542</v>
+        <v>217.4815908833543</v>
       </c>
       <c r="R38" t="n">
         <v>126.5074184424443</v>
@@ -33924,7 +33924,7 @@
         <v>45.89238927438679</v>
       </c>
       <c r="T38" t="n">
-        <v>8.815970775584336</v>
+        <v>8.815970775584338</v>
       </c>
       <c r="U38" t="n">
         <v>0.1611142574635629</v>
@@ -33970,10 +33970,10 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I39" t="n">
-        <v>37.09974016755675</v>
+        <v>37.09974016755676</v>
       </c>
       <c r="J39" t="n">
-        <v>101.8045226687057</v>
+        <v>101.8045226687058</v>
       </c>
       <c r="K39" t="n">
         <v>174.0001444266162</v>
@@ -33997,16 +33997,16 @@
         <v>137.5478774314104</v>
       </c>
       <c r="R39" t="n">
-        <v>66.90241042190236</v>
+        <v>66.90241042190237</v>
       </c>
       <c r="S39" t="n">
-        <v>20.0149553642806</v>
+        <v>20.01495536428061</v>
       </c>
       <c r="T39" t="n">
-        <v>4.343268944456642</v>
+        <v>4.343268944456643</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07089122325010846</v>
+        <v>0.07089122325010848</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,7 +34043,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9033788667718735</v>
+        <v>0.9033788667718736</v>
       </c>
       <c r="H40" t="n">
         <v>8.031859379117209</v>
@@ -34052,10 +34052,10 @@
         <v>27.16706628437599</v>
       </c>
       <c r="J40" t="n">
-        <v>63.86888588077145</v>
+        <v>63.86888588077147</v>
       </c>
       <c r="K40" t="n">
-        <v>104.9561992485867</v>
+        <v>104.9561992485868</v>
       </c>
       <c r="L40" t="n">
         <v>134.3077998835202</v>
@@ -34073,7 +34073,7 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q40" t="n">
-        <v>75.6456612894157</v>
+        <v>75.64566128941571</v>
       </c>
       <c r="R40" t="n">
         <v>40.61919886412441</v>
@@ -34082,7 +34082,7 @@
         <v>15.74342988728801</v>
       </c>
       <c r="T40" t="n">
-        <v>3.85989152166164</v>
+        <v>3.859891521661641</v>
       </c>
       <c r="U40" t="n">
         <v>0.04927521091482952</v>
@@ -34365,13 +34365,13 @@
         <v>20.62514236560893</v>
       </c>
       <c r="I44" t="n">
-        <v>77.6419676358002</v>
+        <v>77.64196763580068</v>
       </c>
       <c r="J44" t="n">
         <v>170.9296401174761</v>
       </c>
       <c r="K44" t="n">
-        <v>256.1792215978844</v>
+        <v>256.1792215978838</v>
       </c>
       <c r="L44" t="n">
         <v>317.8129773085154</v>
@@ -35406,10 +35406,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>43.09406509183668</v>
+        <v>43.0940650918367</v>
       </c>
       <c r="J11" t="n">
-        <v>141.5096806318895</v>
+        <v>141.5096806318896</v>
       </c>
       <c r="K11" t="n">
         <v>220.4146208030745</v>
@@ -35421,10 +35421,10 @@
         <v>316.1969103611789</v>
       </c>
       <c r="N11" t="n">
-        <v>322.0706239763941</v>
+        <v>322.0706239763942</v>
       </c>
       <c r="O11" t="n">
-        <v>301.9332887341497</v>
+        <v>301.9332887341498</v>
       </c>
       <c r="P11" t="n">
         <v>252.0300333907961</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.92735341755675</v>
+        <v>20.92735341755676</v>
       </c>
       <c r="J12" t="n">
-        <v>81.19340833537241</v>
+        <v>322.2713592222984</v>
       </c>
       <c r="K12" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L12" t="n">
-        <v>211.4495804188783</v>
+        <v>211.4495804188784</v>
       </c>
       <c r="M12" t="n">
-        <v>384.4861941600249</v>
+        <v>249.9289506315896</v>
       </c>
       <c r="N12" t="n">
         <v>258.908881620337</v>
@@ -35512,7 +35512,7 @@
         <v>114.8008391424319</v>
       </c>
       <c r="R12" t="n">
-        <v>149.7501983862489</v>
+        <v>43.22949102775823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>121.9409345920422</v>
       </c>
       <c r="K13" t="n">
-        <v>83.99154479587474</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L13" t="n">
         <v>112.389039987819</v>
       </c>
       <c r="M13" t="n">
-        <v>371.1871306155345</v>
+        <v>119.0333037425816</v>
       </c>
       <c r="N13" t="n">
         <v>519.5461606619943</v>
@@ -35588,7 +35588,7 @@
         <v>402.7941251653515</v>
       </c>
       <c r="Q13" t="n">
-        <v>51.02609852463075</v>
+        <v>53.39951215109748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>43.09406509183667</v>
+        <v>43.0940650918367</v>
       </c>
       <c r="J14" t="n">
-        <v>141.5096806318895</v>
+        <v>141.5096806318896</v>
       </c>
       <c r="K14" t="n">
-        <v>220.4146208030745</v>
+        <v>220.4146208030746</v>
       </c>
       <c r="L14" t="n">
-        <v>279.5009348758923</v>
+        <v>279.5009348758924</v>
       </c>
       <c r="M14" t="n">
-        <v>316.1969103611789</v>
+        <v>316.196910361179</v>
       </c>
       <c r="N14" t="n">
-        <v>322.0706239763941</v>
+        <v>322.0706239763942</v>
       </c>
       <c r="O14" t="n">
-        <v>301.9332887341497</v>
+        <v>301.9332887341498</v>
       </c>
       <c r="P14" t="n">
-        <v>252.0300333907961</v>
+        <v>252.0300333907962</v>
       </c>
       <c r="Q14" t="n">
-        <v>181.3569162787562</v>
+        <v>181.3569162787563</v>
       </c>
       <c r="R14" t="n">
-        <v>91.47476854764778</v>
+        <v>91.47476854764784</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.92735341755675</v>
+        <v>20.92735341755676</v>
       </c>
       <c r="J15" t="n">
-        <v>81.1934083353724</v>
+        <v>322.2713592222979</v>
       </c>
       <c r="K15" t="n">
-        <v>392.6788614802092</v>
+        <v>151.6009105932829</v>
       </c>
       <c r="L15" t="n">
-        <v>211.4495804188783</v>
+        <v>211.4495804188784</v>
       </c>
       <c r="M15" t="n">
-        <v>249.9289506315896</v>
+        <v>249.9289506315897</v>
       </c>
       <c r="N15" t="n">
-        <v>258.908881620337</v>
+        <v>258.9088816203371</v>
       </c>
       <c r="O15" t="n">
-        <v>233.2038561210199</v>
+        <v>233.20385612102</v>
       </c>
       <c r="P15" t="n">
-        <v>183.9932973193861</v>
+        <v>183.9932973193862</v>
       </c>
       <c r="Q15" t="n">
-        <v>114.8008391424319</v>
+        <v>114.800839142432</v>
       </c>
       <c r="R15" t="n">
-        <v>43.22949102775821</v>
+        <v>43.22949102775823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.23212989686958</v>
+        <v>121.9409345920422</v>
       </c>
       <c r="K16" t="n">
-        <v>83.99154479587473</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L16" t="n">
-        <v>492.5798415950563</v>
+        <v>363.9133884263876</v>
       </c>
       <c r="M16" t="n">
         <v>119.0333037425816</v>
       </c>
       <c r="N16" t="n">
-        <v>470.2179906228827</v>
+        <v>117.4927032459538</v>
       </c>
       <c r="O16" t="n">
         <v>486.7068083483686</v>
@@ -35825,7 +35825,7 @@
         <v>402.7941251653515</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.02609852463075</v>
+        <v>203.9286211285692</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,25 +35880,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>43.09406509183667</v>
+        <v>43.0940650918367</v>
       </c>
       <c r="J17" t="n">
-        <v>141.5096806318895</v>
+        <v>141.5096806318896</v>
       </c>
       <c r="K17" t="n">
         <v>220.4146208030745</v>
       </c>
       <c r="L17" t="n">
-        <v>279.5009348758923</v>
+        <v>279.5009348758924</v>
       </c>
       <c r="M17" t="n">
         <v>316.1969103611789</v>
       </c>
       <c r="N17" t="n">
-        <v>322.0706239763941</v>
+        <v>322.0706239763942</v>
       </c>
       <c r="O17" t="n">
-        <v>301.9332887341497</v>
+        <v>301.9332887341498</v>
       </c>
       <c r="P17" t="n">
         <v>252.0300333907961</v>
@@ -35907,7 +35907,7 @@
         <v>181.3569162787562</v>
       </c>
       <c r="R17" t="n">
-        <v>91.47476854764778</v>
+        <v>91.47476854764781</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.92735341755675</v>
+        <v>20.92735341755676</v>
       </c>
       <c r="J18" t="n">
-        <v>81.1934083353724</v>
+        <v>322.2713592222984</v>
       </c>
       <c r="K18" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L18" t="n">
-        <v>452.5275313058046</v>
+        <v>211.4495804188784</v>
       </c>
       <c r="M18" t="n">
         <v>249.9289506315896</v>
@@ -35986,7 +35986,7 @@
         <v>114.8008391424319</v>
       </c>
       <c r="R18" t="n">
-        <v>43.22949102775821</v>
+        <v>43.22949102775823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.23212989686958</v>
+        <v>43.23212989686959</v>
       </c>
       <c r="K19" t="n">
-        <v>261.9516537600618</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L19" t="n">
-        <v>112.389039987819</v>
+        <v>492.5798415950563</v>
       </c>
       <c r="M19" t="n">
         <v>119.0333037425816</v>
       </c>
       <c r="N19" t="n">
-        <v>519.5461606619943</v>
+        <v>449.0525540686227</v>
       </c>
       <c r="O19" t="n">
-        <v>486.7068083483686</v>
+        <v>105.1893090522037</v>
       </c>
       <c r="P19" t="n">
         <v>402.7941251653515</v>
@@ -36117,10 +36117,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>43.09406509183668</v>
+        <v>43.0940650918367</v>
       </c>
       <c r="J20" t="n">
-        <v>141.5096806318895</v>
+        <v>141.5096806318896</v>
       </c>
       <c r="K20" t="n">
         <v>220.4146208030745</v>
@@ -36132,10 +36132,10 @@
         <v>316.1969103611789</v>
       </c>
       <c r="N20" t="n">
-        <v>322.0706239763941</v>
+        <v>322.0706239763942</v>
       </c>
       <c r="O20" t="n">
-        <v>301.9332887341497</v>
+        <v>301.9332887341498</v>
       </c>
       <c r="P20" t="n">
         <v>252.0300333907961</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.92735341755675</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J21" t="n">
-        <v>81.19340833537241</v>
+        <v>192.0564035361189</v>
       </c>
       <c r="K21" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L21" t="n">
-        <v>211.4495804188783</v>
+        <v>211.4495804188784</v>
       </c>
       <c r="M21" t="n">
-        <v>491.0069015185159</v>
+        <v>249.9289506315896</v>
       </c>
       <c r="N21" t="n">
         <v>258.908881620337</v>
@@ -36223,7 +36223,7 @@
         <v>114.8008391424319</v>
       </c>
       <c r="R21" t="n">
-        <v>43.22949102775821</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.23212989686958</v>
+        <v>121.9409345920422</v>
       </c>
       <c r="K22" t="n">
-        <v>83.99154479587474</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L22" t="n">
-        <v>492.5798415950563</v>
+        <v>241.5801819332656</v>
       </c>
       <c r="M22" t="n">
         <v>536.7459102706844</v>
       </c>
       <c r="N22" t="n">
-        <v>281.1203607870063</v>
+        <v>519.5461606619943</v>
       </c>
       <c r="O22" t="n">
         <v>105.1893090522037</v>
       </c>
       <c r="P22" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049535</v>
       </c>
       <c r="Q22" t="n">
         <v>203.9286211285692</v>
@@ -36354,10 +36354,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>43.09406509183668</v>
+        <v>43.0940650918367</v>
       </c>
       <c r="J23" t="n">
-        <v>141.5096806318895</v>
+        <v>141.5096806318896</v>
       </c>
       <c r="K23" t="n">
         <v>220.4146208030745</v>
@@ -36369,10 +36369,10 @@
         <v>316.1969103611789</v>
       </c>
       <c r="N23" t="n">
-        <v>322.0706239763941</v>
+        <v>322.0706239763942</v>
       </c>
       <c r="O23" t="n">
-        <v>301.9332887341497</v>
+        <v>301.9332887341498</v>
       </c>
       <c r="P23" t="n">
         <v>252.0300333907961</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.92735341755675</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J24" t="n">
-        <v>81.19340833537241</v>
+        <v>192.0564035361189</v>
       </c>
       <c r="K24" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L24" t="n">
-        <v>211.4495804188783</v>
+        <v>211.4495804188784</v>
       </c>
       <c r="M24" t="n">
         <v>249.9289506315896</v>
@@ -36457,10 +36457,10 @@
         <v>183.9932973193861</v>
       </c>
       <c r="Q24" t="n">
-        <v>355.8787900293581</v>
+        <v>114.8008391424319</v>
       </c>
       <c r="R24" t="n">
-        <v>43.22949102775821</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.23212989686958</v>
+        <v>121.9409345920422</v>
       </c>
       <c r="K25" t="n">
         <v>333.7719580423617</v>
@@ -36524,16 +36524,16 @@
         <v>112.389039987819</v>
       </c>
       <c r="M25" t="n">
-        <v>119.0333037425816</v>
+        <v>536.7459102706844</v>
       </c>
       <c r="N25" t="n">
         <v>519.5461606619943</v>
       </c>
       <c r="O25" t="n">
-        <v>414.8865040660697</v>
+        <v>105.1893090522037</v>
       </c>
       <c r="P25" t="n">
-        <v>402.7941251653515</v>
+        <v>216.0699089559419</v>
       </c>
       <c r="Q25" t="n">
         <v>203.9286211285692</v>
@@ -36591,10 +36591,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>43.09406509183668</v>
+        <v>43.0940650918367</v>
       </c>
       <c r="J26" t="n">
-        <v>141.5096806318895</v>
+        <v>141.5096806318896</v>
       </c>
       <c r="K26" t="n">
         <v>220.4146208030745</v>
@@ -36606,10 +36606,10 @@
         <v>316.1969103611789</v>
       </c>
       <c r="N26" t="n">
-        <v>322.0706239763941</v>
+        <v>322.0706239763942</v>
       </c>
       <c r="O26" t="n">
-        <v>301.9332887341497</v>
+        <v>301.9332887341498</v>
       </c>
       <c r="P26" t="n">
         <v>252.0300333907961</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.92735341755675</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J27" t="n">
-        <v>81.19340833537241</v>
+        <v>192.0564035361189</v>
       </c>
       <c r="K27" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L27" t="n">
-        <v>211.4495804188783</v>
+        <v>211.4495804188784</v>
       </c>
       <c r="M27" t="n">
         <v>249.9289506315896</v>
@@ -36691,13 +36691,13 @@
         <v>233.2038561210199</v>
       </c>
       <c r="P27" t="n">
-        <v>425.0712482063122</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q27" t="n">
         <v>114.8008391424319</v>
       </c>
       <c r="R27" t="n">
-        <v>43.22949102775821</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>121.9409345920422</v>
       </c>
       <c r="K28" t="n">
-        <v>299.9502644368909</v>
+        <v>83.99154479587476</v>
       </c>
       <c r="L28" t="n">
         <v>112.389039987819</v>
@@ -36767,13 +36767,13 @@
         <v>519.5461606619943</v>
       </c>
       <c r="O28" t="n">
-        <v>105.1893090522037</v>
+        <v>484.1608642441373</v>
       </c>
       <c r="P28" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049535</v>
       </c>
       <c r="Q28" t="n">
-        <v>51.02609852463075</v>
+        <v>203.9286211285692</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,10 +36828,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>43.09406509183668</v>
+        <v>43.0940650918367</v>
       </c>
       <c r="J29" t="n">
-        <v>141.5096806318895</v>
+        <v>141.5096806318896</v>
       </c>
       <c r="K29" t="n">
         <v>220.4146208030745</v>
@@ -36840,13 +36840,13 @@
         <v>279.5009348758924</v>
       </c>
       <c r="M29" t="n">
-        <v>316.1969103611789</v>
+        <v>316.1969103611794</v>
       </c>
       <c r="N29" t="n">
-        <v>322.0706239763941</v>
+        <v>322.0706239763942</v>
       </c>
       <c r="O29" t="n">
-        <v>301.9332887341497</v>
+        <v>301.9332887341498</v>
       </c>
       <c r="P29" t="n">
         <v>252.0300333907961</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.92735341755675</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J30" t="n">
-        <v>81.19340833537241</v>
+        <v>81.19340833537242</v>
       </c>
       <c r="K30" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L30" t="n">
-        <v>211.4495804188783</v>
+        <v>211.4495804188784</v>
       </c>
       <c r="M30" t="n">
-        <v>491.0069015185159</v>
+        <v>249.9289506315896</v>
       </c>
       <c r="N30" t="n">
         <v>258.908881620337</v>
@@ -36928,13 +36928,13 @@
         <v>233.2038561210199</v>
       </c>
       <c r="P30" t="n">
-        <v>183.9932973193861</v>
+        <v>294.8562925201327</v>
       </c>
       <c r="Q30" t="n">
         <v>114.8008391424319</v>
       </c>
       <c r="R30" t="n">
-        <v>43.22949102775821</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.23212989686958</v>
+        <v>43.23212989686959</v>
       </c>
       <c r="K31" t="n">
-        <v>263.2783514489903</v>
+        <v>83.99154479587476</v>
       </c>
       <c r="L31" t="n">
         <v>492.5798415950563</v>
       </c>
       <c r="M31" t="n">
-        <v>119.0333037425816</v>
+        <v>536.7459102706844</v>
       </c>
       <c r="N31" t="n">
         <v>519.5461606619943</v>
       </c>
       <c r="O31" t="n">
-        <v>105.1893090522037</v>
+        <v>335.5813899360112</v>
       </c>
       <c r="P31" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049535</v>
       </c>
       <c r="Q31" t="n">
-        <v>203.9286211285692</v>
+        <v>51.02609852463077</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,10 +37065,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>43.09406509183668</v>
+        <v>43.0940650918367</v>
       </c>
       <c r="J32" t="n">
-        <v>141.5096806318895</v>
+        <v>141.50968063189</v>
       </c>
       <c r="K32" t="n">
         <v>220.4146208030745</v>
@@ -37080,10 +37080,10 @@
         <v>316.1969103611789</v>
       </c>
       <c r="N32" t="n">
-        <v>322.0706239763949</v>
+        <v>322.0706239763942</v>
       </c>
       <c r="O32" t="n">
-        <v>301.9332887341497</v>
+        <v>301.9332887341498</v>
       </c>
       <c r="P32" t="n">
         <v>252.0300333907961</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.92735341755675</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J33" t="n">
-        <v>81.19340833537241</v>
+        <v>81.19340833537242</v>
       </c>
       <c r="K33" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L33" t="n">
-        <v>211.4495804188783</v>
+        <v>211.4495804188784</v>
       </c>
       <c r="M33" t="n">
         <v>249.9289506315896</v>
       </c>
       <c r="N33" t="n">
-        <v>499.9868325072632</v>
+        <v>258.908881620337</v>
       </c>
       <c r="O33" t="n">
-        <v>233.2038561210199</v>
+        <v>344.0668513217664</v>
       </c>
       <c r="P33" t="n">
         <v>183.9932973193861</v>
@@ -37171,7 +37171,7 @@
         <v>114.8008391424319</v>
       </c>
       <c r="R33" t="n">
-        <v>43.22949102775821</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.23212989686958</v>
+        <v>121.9409345920422</v>
       </c>
       <c r="K34" t="n">
-        <v>261.9516537600626</v>
+        <v>183.2428490648898</v>
       </c>
       <c r="L34" t="n">
         <v>112.389039987819</v>
@@ -37302,10 +37302,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>43.09406509183668</v>
+        <v>43.0940650918367</v>
       </c>
       <c r="J35" t="n">
-        <v>141.5096806318895</v>
+        <v>141.5096806318896</v>
       </c>
       <c r="K35" t="n">
         <v>220.4146208030745</v>
@@ -37317,10 +37317,10 @@
         <v>316.1969103611789</v>
       </c>
       <c r="N35" t="n">
-        <v>322.0706239763941</v>
+        <v>322.0706239763942</v>
       </c>
       <c r="O35" t="n">
-        <v>301.9332887341497</v>
+        <v>301.9332887341498</v>
       </c>
       <c r="P35" t="n">
         <v>252.0300333907961</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.92735341755675</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J36" t="n">
-        <v>81.19340833537241</v>
+        <v>81.19340833537242</v>
       </c>
       <c r="K36" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L36" t="n">
-        <v>211.4495804188783</v>
+        <v>211.4495804188784</v>
       </c>
       <c r="M36" t="n">
         <v>249.9289506315896</v>
@@ -37402,13 +37402,13 @@
         <v>233.2038561210199</v>
       </c>
       <c r="P36" t="n">
-        <v>183.9932973193861</v>
+        <v>294.8562925201327</v>
       </c>
       <c r="Q36" t="n">
-        <v>355.8787900293581</v>
+        <v>114.8008391424319</v>
       </c>
       <c r="R36" t="n">
-        <v>43.22949102775821</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,13 +37466,13 @@
         <v>121.9409345920422</v>
       </c>
       <c r="K37" t="n">
-        <v>83.99154479587474</v>
+        <v>83.99154479587476</v>
       </c>
       <c r="L37" t="n">
-        <v>364.5428668607729</v>
+        <v>112.389039987819</v>
       </c>
       <c r="M37" t="n">
-        <v>119.0333037425816</v>
+        <v>536.7459102706844</v>
       </c>
       <c r="N37" t="n">
         <v>519.5461606619943</v>
@@ -37481,10 +37481,10 @@
         <v>486.7068083483686</v>
       </c>
       <c r="P37" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049535</v>
       </c>
       <c r="Q37" t="n">
-        <v>51.02609852463075</v>
+        <v>201.3826770243379</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,10 +37539,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>43.09406509183668</v>
+        <v>43.0940650918367</v>
       </c>
       <c r="J38" t="n">
-        <v>141.5096806318895</v>
+        <v>141.50968063189</v>
       </c>
       <c r="K38" t="n">
         <v>220.4146208030745</v>
@@ -37554,10 +37554,10 @@
         <v>316.1969103611789</v>
       </c>
       <c r="N38" t="n">
-        <v>322.0706239763941</v>
+        <v>322.0706239763942</v>
       </c>
       <c r="O38" t="n">
-        <v>301.9332887341497</v>
+        <v>301.9332887341498</v>
       </c>
       <c r="P38" t="n">
         <v>252.0300333907961</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.92735341755675</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J39" t="n">
-        <v>81.19340833537241</v>
+        <v>192.0564035361189</v>
       </c>
       <c r="K39" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L39" t="n">
-        <v>211.4495804188783</v>
+        <v>211.4495804188784</v>
       </c>
       <c r="M39" t="n">
         <v>249.9289506315896</v>
@@ -37636,7 +37636,7 @@
         <v>258.908881620337</v>
       </c>
       <c r="O39" t="n">
-        <v>474.2818070079459</v>
+        <v>233.2038561210199</v>
       </c>
       <c r="P39" t="n">
         <v>183.9932973193861</v>
@@ -37645,7 +37645,7 @@
         <v>114.8008391424319</v>
       </c>
       <c r="R39" t="n">
-        <v>43.22949102775821</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,25 +37703,25 @@
         <v>121.9409345920422</v>
       </c>
       <c r="K40" t="n">
-        <v>321.8129202456942</v>
+        <v>83.99154479587476</v>
       </c>
       <c r="L40" t="n">
-        <v>492.5798415950563</v>
+        <v>112.389039987819</v>
       </c>
       <c r="M40" t="n">
         <v>536.7459102706844</v>
       </c>
       <c r="N40" t="n">
-        <v>117.4927032459538</v>
+        <v>519.5461606619943</v>
       </c>
       <c r="O40" t="n">
-        <v>105.1893090522037</v>
+        <v>486.7068083483686</v>
       </c>
       <c r="P40" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049535</v>
       </c>
       <c r="Q40" t="n">
-        <v>51.02609852463075</v>
+        <v>201.3826770243379</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.92735341755676</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J42" t="n">
-        <v>81.19340833537242</v>
+        <v>192.0564035361189</v>
       </c>
       <c r="K42" t="n">
         <v>151.6009105932828</v>
@@ -37879,10 +37879,10 @@
         <v>183.9932973193861</v>
       </c>
       <c r="Q42" t="n">
-        <v>355.8787900293578</v>
+        <v>114.8008391424319</v>
       </c>
       <c r="R42" t="n">
-        <v>43.22949102775823</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>121.9409345920422</v>
+        <v>43.23212989686959</v>
       </c>
       <c r="K43" t="n">
         <v>333.7719580423617</v>
@@ -37946,16 +37946,16 @@
         <v>492.5798415950563</v>
       </c>
       <c r="M43" t="n">
-        <v>536.7459102706844</v>
+        <v>119.0333037425816</v>
       </c>
       <c r="N43" t="n">
         <v>117.4927032459538</v>
       </c>
       <c r="O43" t="n">
-        <v>256.2431068064536</v>
+        <v>436.7491598748727</v>
       </c>
       <c r="P43" t="n">
-        <v>86.87876701049535</v>
+        <v>402.7941251653515</v>
       </c>
       <c r="Q43" t="n">
         <v>203.9286211285692</v>
@@ -38013,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>43.0940650918367</v>
+        <v>43.09406509183718</v>
       </c>
       <c r="J44" t="n">
         <v>141.5096806318896</v>
       </c>
       <c r="K44" t="n">
-        <v>220.414620803075</v>
+        <v>220.4146208030745</v>
       </c>
       <c r="L44" t="n">
         <v>279.5009348758924</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.92735341755676</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J45" t="n">
-        <v>215.7506518638077</v>
+        <v>192.0564035361189</v>
       </c>
       <c r="K45" t="n">
         <v>151.6009105932828</v>
@@ -38177,22 +38177,22 @@
         <v>43.23212989686959</v>
       </c>
       <c r="K46" t="n">
-        <v>246.2925046480003</v>
+        <v>83.99154479587476</v>
       </c>
       <c r="L46" t="n">
-        <v>112.389039987819</v>
+        <v>188.5519005787602</v>
       </c>
       <c r="M46" t="n">
         <v>536.7459102706844</v>
       </c>
       <c r="N46" t="n">
-        <v>117.4927032459538</v>
+        <v>519.5461606619943</v>
       </c>
       <c r="O46" t="n">
         <v>486.7068083483686</v>
       </c>
       <c r="P46" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049535</v>
       </c>
       <c r="Q46" t="n">
         <v>203.9286211285692</v>
